--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_15_15.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_15_15.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-314323.4207189605</v>
+        <v>-317213.7877654884</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -665,7 +665,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
@@ -707,10 +707,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>6.05642108929943</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -722,7 +722,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>6.05642108929943</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -738,25 +738,25 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
         <v>6.876045741711437</v>
       </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>6.056421089299432</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>6.056421089299432</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>6.876045741711437</v>
@@ -823,7 +823,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -832,7 +832,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>6.876045741711437</v>
+        <v>6.056421089299432</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -865,10 +865,10 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>6.056421089299432</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
     </row>
     <row r="5">
@@ -893,10 +893,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>48.86504325862821</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>55.47802368145804</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -905,16 +905,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>35.88737763397452</v>
+        <v>55.47802368145804</v>
       </c>
       <c r="G5" t="n">
-        <v>13.78719615771948</v>
+        <v>55.47802368145804</v>
       </c>
       <c r="H5" t="n">
-        <v>55.47802368145887</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>55.47802368145887</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.66849314839384</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -978,7 +978,7 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>55.47802368145804</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -987,10 +987,10 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>54.53130221739035</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>55.47802368145887</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1020,13 +1020,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.81176472269749</v>
+        <v>49.81176472269764</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>55.47802368145887</v>
+        <v>55.47802368145804</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -1038,7 +1038,7 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>54.53130221738863</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -1063,19 +1063,19 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>55.47802368145887</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>29.81072265727958</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>55.47802368145887</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.29592884233773</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,16 +1096,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.23641544046878</v>
+        <v>29.23641544046895</v>
       </c>
       <c r="R7" t="n">
-        <v>55.47802368145887</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>19.62862781816019</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1117,10 +1117,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>55.47802368145804</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>55.47802368145804</v>
       </c>
     </row>
     <row r="8">
@@ -1133,7 +1133,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>133.8333590606436</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1142,16 +1142,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="G8" t="n">
-        <v>13.09783323005805</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>125.4713171199747</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,7 +1184,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>28.33592091243833</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1193,13 +1193,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1209,28 +1209,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>149.4506622450098</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>136.1637893657753</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>100.8417573507397</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>48.77881175550657</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>26.91122581714238</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -1266,10 +1266,10 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>174.0708030534087</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
@@ -1300,16 +1300,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>128.7620850689235</v>
       </c>
       <c r="G10" t="n">
-        <v>167.0019352027142</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>125.7072197708667</v>
       </c>
       <c r="J10" t="n">
         <v>23.43375830553084</v>
@@ -1336,13 +1336,13 @@
         <v>3.343082173845801</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>132.8223696106904</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>74.86869122483503</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1379,16 +1379,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>247.2395995396728</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1421,22 +1421,22 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>42.64559995940431</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1525,10 +1525,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1540,13 +1540,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>74.75769145492372</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1585,10 +1585,10 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>3.961303165911258</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1613,7 +1613,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>27.27528437438817</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1625,7 +1625,7 @@
         <v>291.1875290111436</v>
       </c>
       <c r="I14" t="n">
-        <v>28.70168267515362</v>
+        <v>28.70168267515376</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,16 +1655,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>101.5774980376931</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>202.4560313763623</v>
+        <v>29.66634454746463</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>250.9684546314181</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1673,7 +1673,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1701,10 +1701,10 @@
         <v>134.8207812850185</v>
       </c>
       <c r="H15" t="n">
-        <v>87.87112667606192</v>
+        <v>87.87112667606193</v>
       </c>
       <c r="I15" t="n">
-        <v>12.66502629908665</v>
+        <v>12.66502629908672</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1765,7 +1765,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>84.02060202131953</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1777,10 +1777,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.876002342373</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>143.4231041280592</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,16 +1810,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>82.19633390844236</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>187.1583167657329</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>218.9088694504607</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2036669737953</v>
+        <v>191.2598553409099</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1841,16 +1841,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>351.1236393112667</v>
+        <v>351.1236393112686</v>
       </c>
       <c r="C17" t="n">
-        <v>333.6626894187937</v>
+        <v>333.6626894187936</v>
       </c>
       <c r="D17" t="n">
-        <v>323.0728392684691</v>
+        <v>323.072839268469</v>
       </c>
       <c r="E17" t="n">
-        <v>350.3201677200479</v>
+        <v>350.3201677200478</v>
       </c>
       <c r="F17" t="n">
         <v>375.2658433894975</v>
@@ -1859,7 +1859,7 @@
         <v>378.5542040247498</v>
       </c>
       <c r="H17" t="n">
-        <v>255.241665994756</v>
+        <v>255.2416659947559</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,13 +1892,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>60.32014642295182</v>
+        <v>60.32014642295175</v>
       </c>
       <c r="T17" t="n">
-        <v>168.9926026545724</v>
+        <v>168.9926026545723</v>
       </c>
       <c r="U17" t="n">
-        <v>219.3243840645689</v>
+        <v>219.3243840645688</v>
       </c>
       <c r="V17" t="n">
         <v>296.142056117921</v>
@@ -1910,7 +1910,7 @@
         <v>338.1208983262551</v>
       </c>
       <c r="Y17" t="n">
-        <v>354.6277363038397</v>
+        <v>354.6277363038396</v>
       </c>
     </row>
     <row r="18">
@@ -1941,7 +1941,7 @@
         <v>85.68348164116145</v>
       </c>
       <c r="I18" t="n">
-        <v>4.866200902188993</v>
+        <v>4.866200902188965</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2005,22 +2005,22 @@
         <v>135.6366187464139</v>
       </c>
       <c r="D19" t="n">
-        <v>117.0052706659985</v>
+        <v>117.0052706659984</v>
       </c>
       <c r="E19" t="n">
-        <v>114.823760294354</v>
+        <v>114.8237602943552</v>
       </c>
       <c r="F19" t="n">
-        <v>113.8108456707174</v>
+        <v>113.8108456707173</v>
       </c>
       <c r="G19" t="n">
-        <v>134.0758985510283</v>
+        <v>134.0758985510282</v>
       </c>
       <c r="H19" t="n">
-        <v>110.1245053442998</v>
+        <v>110.1245053442997</v>
       </c>
       <c r="I19" t="n">
-        <v>54.52629139453019</v>
+        <v>54.5262913945306</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>42.04747230221584</v>
+        <v>42.04747230221577</v>
       </c>
       <c r="S19" t="n">
-        <v>152.2386502424834</v>
+        <v>152.2386502424833</v>
       </c>
       <c r="T19" t="n">
-        <v>186.4872700401421</v>
+        <v>186.487270040142</v>
       </c>
       <c r="U19" t="n">
         <v>254.5831063612652</v>
@@ -2065,10 +2065,10 @@
         <v>254.9127959843771</v>
       </c>
       <c r="X19" t="n">
-        <v>194.0994530368233</v>
+        <v>194.0994530368232</v>
       </c>
       <c r="Y19" t="n">
-        <v>186.9744509998809</v>
+        <v>186.9744509998808</v>
       </c>
     </row>
     <row r="20">
@@ -2078,16 +2078,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>351.1236393112667</v>
+        <v>351.1236393112666</v>
       </c>
       <c r="C20" t="n">
-        <v>333.6626894187937</v>
+        <v>333.6626894187936</v>
       </c>
       <c r="D20" t="n">
-        <v>323.0728392684681</v>
+        <v>323.072839268469</v>
       </c>
       <c r="E20" t="n">
-        <v>350.3201677200479</v>
+        <v>350.3201677200478</v>
       </c>
       <c r="F20" t="n">
         <v>375.2658433894975</v>
@@ -2096,7 +2096,7 @@
         <v>378.5542040247498</v>
       </c>
       <c r="H20" t="n">
-        <v>255.241665994756</v>
+        <v>255.2416659947559</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,13 +2129,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>60.32014642295182</v>
+        <v>60.32014642295177</v>
       </c>
       <c r="T20" t="n">
         <v>168.9926026545724</v>
       </c>
       <c r="U20" t="n">
-        <v>219.3243840645689</v>
+        <v>219.3243840645699</v>
       </c>
       <c r="V20" t="n">
         <v>296.142056117921</v>
@@ -2147,7 +2147,7 @@
         <v>338.1208983262551</v>
       </c>
       <c r="Y20" t="n">
-        <v>354.6277363038397</v>
+        <v>354.6277363038396</v>
       </c>
     </row>
     <row r="21">
@@ -2242,22 +2242,22 @@
         <v>135.6366187464139</v>
       </c>
       <c r="D22" t="n">
-        <v>117.0052706659985</v>
+        <v>117.0052706659984</v>
       </c>
       <c r="E22" t="n">
-        <v>114.8237602943553</v>
+        <v>114.8237602943552</v>
       </c>
       <c r="F22" t="n">
-        <v>113.8108456707174</v>
+        <v>113.8108456707173</v>
       </c>
       <c r="G22" t="n">
-        <v>134.0758985510283</v>
+        <v>134.0758985510282</v>
       </c>
       <c r="H22" t="n">
-        <v>110.1245053442984</v>
+        <v>110.1245053442997</v>
       </c>
       <c r="I22" t="n">
-        <v>54.52629139453019</v>
+        <v>54.52629139453013</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,13 +2284,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>42.04747230221584</v>
+        <v>42.04747230221578</v>
       </c>
       <c r="S22" t="n">
-        <v>152.2386502424834</v>
+        <v>152.2386502424833</v>
       </c>
       <c r="T22" t="n">
-        <v>186.4872700401421</v>
+        <v>186.487270040142</v>
       </c>
       <c r="U22" t="n">
         <v>254.5831063612652</v>
@@ -2302,10 +2302,10 @@
         <v>254.9127959843771</v>
       </c>
       <c r="X22" t="n">
-        <v>194.0994530368233</v>
+        <v>194.0994530368232</v>
       </c>
       <c r="Y22" t="n">
-        <v>186.9744509998809</v>
+        <v>186.9744509998808</v>
       </c>
     </row>
     <row r="23">
@@ -2315,16 +2315,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>351.1236393112667</v>
+        <v>351.1236393112666</v>
       </c>
       <c r="C23" t="n">
-        <v>333.6626894187937</v>
+        <v>333.6626894187936</v>
       </c>
       <c r="D23" t="n">
-        <v>323.0728392684691</v>
+        <v>323.072839268469</v>
       </c>
       <c r="E23" t="n">
-        <v>350.3201677200479</v>
+        <v>350.3201677200478</v>
       </c>
       <c r="F23" t="n">
         <v>375.2658433894975</v>
@@ -2333,7 +2333,7 @@
         <v>378.5542040247498</v>
       </c>
       <c r="H23" t="n">
-        <v>255.241665994756</v>
+        <v>255.2416659947559</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,13 +2366,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>60.32014642295182</v>
+        <v>60.32014642295177</v>
       </c>
       <c r="T23" t="n">
         <v>168.9926026545724</v>
       </c>
       <c r="U23" t="n">
-        <v>219.3243840645689</v>
+        <v>219.3243840645688</v>
       </c>
       <c r="V23" t="n">
         <v>296.142056117921</v>
@@ -2384,7 +2384,7 @@
         <v>338.1208983262551</v>
       </c>
       <c r="Y23" t="n">
-        <v>354.6277363038397</v>
+        <v>354.6277363038396</v>
       </c>
     </row>
     <row r="24">
@@ -2479,22 +2479,22 @@
         <v>135.6366187464139</v>
       </c>
       <c r="D25" t="n">
-        <v>117.0052706659967</v>
+        <v>117.0052706659984</v>
       </c>
       <c r="E25" t="n">
-        <v>114.8237602943553</v>
+        <v>114.8237602943552</v>
       </c>
       <c r="F25" t="n">
-        <v>113.8108456707174</v>
+        <v>113.8108456707173</v>
       </c>
       <c r="G25" t="n">
-        <v>134.0758985510283</v>
+        <v>134.0758985510282</v>
       </c>
       <c r="H25" t="n">
-        <v>110.1245053442998</v>
+        <v>110.1245053442997</v>
       </c>
       <c r="I25" t="n">
-        <v>54.52629139453019</v>
+        <v>54.5262913945307</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,13 +2521,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>42.04747230221584</v>
+        <v>42.04747230221578</v>
       </c>
       <c r="S25" t="n">
-        <v>152.2386502424834</v>
+        <v>152.2386502424833</v>
       </c>
       <c r="T25" t="n">
-        <v>186.4872700401421</v>
+        <v>186.487270040142</v>
       </c>
       <c r="U25" t="n">
         <v>254.5831063612652</v>
@@ -2539,10 +2539,10 @@
         <v>254.9127959843771</v>
       </c>
       <c r="X25" t="n">
-        <v>194.0994530368233</v>
+        <v>194.0994530368232</v>
       </c>
       <c r="Y25" t="n">
-        <v>186.9744509998809</v>
+        <v>186.9744509998808</v>
       </c>
     </row>
     <row r="26">
@@ -2552,16 +2552,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>351.1236393112667</v>
+        <v>351.1236393112666</v>
       </c>
       <c r="C26" t="n">
-        <v>333.6626894187937</v>
+        <v>333.6626894187936</v>
       </c>
       <c r="D26" t="n">
-        <v>323.0728392684691</v>
+        <v>323.072839268469</v>
       </c>
       <c r="E26" t="n">
-        <v>350.3201677200479</v>
+        <v>350.3201677200478</v>
       </c>
       <c r="F26" t="n">
         <v>375.2658433894975</v>
@@ -2570,7 +2570,7 @@
         <v>378.5542040247498</v>
       </c>
       <c r="H26" t="n">
-        <v>255.241665994756</v>
+        <v>255.2416659947559</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,13 +2603,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>60.32014642295182</v>
+        <v>60.32014642295177</v>
       </c>
       <c r="T26" t="n">
         <v>168.9926026545724</v>
       </c>
       <c r="U26" t="n">
-        <v>219.3243840645689</v>
+        <v>219.3243840645688</v>
       </c>
       <c r="V26" t="n">
         <v>296.142056117921</v>
@@ -2621,7 +2621,7 @@
         <v>338.1208983262551</v>
       </c>
       <c r="Y26" t="n">
-        <v>354.6277363038397</v>
+        <v>354.6277363038396</v>
       </c>
     </row>
     <row r="27">
@@ -2716,22 +2716,22 @@
         <v>135.6366187464139</v>
       </c>
       <c r="D28" t="n">
-        <v>117.0052706659985</v>
+        <v>117.0052706659984</v>
       </c>
       <c r="E28" t="n">
-        <v>114.8237602943536</v>
+        <v>114.8237602943552</v>
       </c>
       <c r="F28" t="n">
-        <v>113.8108456707174</v>
+        <v>113.8108456707173</v>
       </c>
       <c r="G28" t="n">
-        <v>134.0758985510283</v>
+        <v>134.0758985510282</v>
       </c>
       <c r="H28" t="n">
-        <v>110.1245053442998</v>
+        <v>110.1245053442997</v>
       </c>
       <c r="I28" t="n">
-        <v>54.52629139453019</v>
+        <v>54.52629139453013</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>42.04747230221584</v>
+        <v>42.04747230221578</v>
       </c>
       <c r="S28" t="n">
-        <v>152.2386502424834</v>
+        <v>152.2386502424833</v>
       </c>
       <c r="T28" t="n">
-        <v>186.4872700401421</v>
+        <v>186.487270040142</v>
       </c>
       <c r="U28" t="n">
         <v>254.5831063612652</v>
@@ -2776,10 +2776,10 @@
         <v>254.9127959843771</v>
       </c>
       <c r="X28" t="n">
-        <v>194.0994530368233</v>
+        <v>194.0994530368236</v>
       </c>
       <c r="Y28" t="n">
-        <v>186.9744509998809</v>
+        <v>186.9744509998808</v>
       </c>
     </row>
     <row r="29">
@@ -2789,16 +2789,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>351.1236393112667</v>
+        <v>351.1236393112666</v>
       </c>
       <c r="C29" t="n">
-        <v>333.6626894187937</v>
+        <v>333.6626894187936</v>
       </c>
       <c r="D29" t="n">
-        <v>323.0728392684691</v>
+        <v>323.072839268469</v>
       </c>
       <c r="E29" t="n">
-        <v>350.3201677200479</v>
+        <v>350.3201677200478</v>
       </c>
       <c r="F29" t="n">
         <v>375.2658433894975</v>
@@ -2807,7 +2807,7 @@
         <v>378.5542040247498</v>
       </c>
       <c r="H29" t="n">
-        <v>255.241665994756</v>
+        <v>255.2416659947559</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,13 +2840,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>60.32014642295182</v>
+        <v>60.32014642295177</v>
       </c>
       <c r="T29" t="n">
         <v>168.9926026545724</v>
       </c>
       <c r="U29" t="n">
-        <v>219.3243840645689</v>
+        <v>219.3243840645688</v>
       </c>
       <c r="V29" t="n">
         <v>296.142056117921</v>
@@ -2858,7 +2858,7 @@
         <v>338.1208983262551</v>
       </c>
       <c r="Y29" t="n">
-        <v>354.6277363038397</v>
+        <v>354.6277363038396</v>
       </c>
     </row>
     <row r="30">
@@ -2953,22 +2953,22 @@
         <v>135.6366187464139</v>
       </c>
       <c r="D31" t="n">
-        <v>117.0052706659985</v>
+        <v>117.0052706659994</v>
       </c>
       <c r="E31" t="n">
-        <v>114.8237602943553</v>
+        <v>114.8237602943552</v>
       </c>
       <c r="F31" t="n">
-        <v>113.8108456707174</v>
+        <v>113.8108456707173</v>
       </c>
       <c r="G31" t="n">
-        <v>134.0758985510283</v>
+        <v>134.0758985510282</v>
       </c>
       <c r="H31" t="n">
-        <v>110.1245053442998</v>
+        <v>110.1245053442997</v>
       </c>
       <c r="I31" t="n">
-        <v>54.52629139453019</v>
+        <v>54.52629139453013</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.04747230221584</v>
+        <v>42.04747230221578</v>
       </c>
       <c r="S31" t="n">
-        <v>152.2386502424834</v>
+        <v>152.2386502424833</v>
       </c>
       <c r="T31" t="n">
-        <v>186.4872700401421</v>
+        <v>186.487270040142</v>
       </c>
       <c r="U31" t="n">
         <v>254.5831063612652</v>
@@ -3013,10 +3013,10 @@
         <v>254.9127959843771</v>
       </c>
       <c r="X31" t="n">
-        <v>194.0994530368219</v>
+        <v>194.0994530368232</v>
       </c>
       <c r="Y31" t="n">
-        <v>186.9744509998809</v>
+        <v>186.9744509998808</v>
       </c>
     </row>
     <row r="32">
@@ -3026,16 +3026,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>351.1236393112666</v>
+        <v>351.1236393112667</v>
       </c>
       <c r="C32" t="n">
-        <v>333.6626894187936</v>
+        <v>333.6626894187937</v>
       </c>
       <c r="D32" t="n">
-        <v>323.072839268469</v>
+        <v>323.0728392684691</v>
       </c>
       <c r="E32" t="n">
-        <v>350.3201677200478</v>
+        <v>350.3201677200479</v>
       </c>
       <c r="F32" t="n">
         <v>375.2658433894975</v>
@@ -3044,7 +3044,7 @@
         <v>378.5542040247498</v>
       </c>
       <c r="H32" t="n">
-        <v>255.2416659947559</v>
+        <v>255.241665994756</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3077,13 +3077,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>60.32014642295175</v>
+        <v>60.32014642295181</v>
       </c>
       <c r="T32" t="n">
         <v>168.9926026545724</v>
       </c>
       <c r="U32" t="n">
-        <v>219.3243840645688</v>
+        <v>219.3243840645689</v>
       </c>
       <c r="V32" t="n">
         <v>296.142056117921</v>
@@ -3095,7 +3095,7 @@
         <v>338.1208983262551</v>
       </c>
       <c r="Y32" t="n">
-        <v>354.6277363038396</v>
+        <v>354.6277363038397</v>
       </c>
     </row>
     <row r="33">
@@ -3190,22 +3190,22 @@
         <v>135.6366187464139</v>
       </c>
       <c r="D34" t="n">
-        <v>117.0052706659984</v>
+        <v>117.0052706659985</v>
       </c>
       <c r="E34" t="n">
-        <v>114.8237602943552</v>
+        <v>114.8237602943553</v>
       </c>
       <c r="F34" t="n">
-        <v>113.8108456707173</v>
+        <v>113.8108456707174</v>
       </c>
       <c r="G34" t="n">
         <v>134.0758985510282</v>
       </c>
       <c r="H34" t="n">
-        <v>110.1245053442997</v>
+        <v>110.1245053442998</v>
       </c>
       <c r="I34" t="n">
-        <v>54.52629139453012</v>
+        <v>54.52629139453018</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.04747230221577</v>
+        <v>42.04747230221582</v>
       </c>
       <c r="S34" t="n">
-        <v>152.2386502424833</v>
+        <v>152.2386502424834</v>
       </c>
       <c r="T34" t="n">
-        <v>186.487270040142</v>
+        <v>186.4872700401421</v>
       </c>
       <c r="U34" t="n">
         <v>254.5831063612652</v>
@@ -3250,10 +3250,10 @@
         <v>254.9127959843771</v>
       </c>
       <c r="X34" t="n">
-        <v>194.0994530368232</v>
+        <v>194.0994530368233</v>
       </c>
       <c r="Y34" t="n">
-        <v>186.9744509998808</v>
+        <v>186.9744509998809</v>
       </c>
     </row>
     <row r="35">
@@ -3263,25 +3263,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>351.1236393112666</v>
+        <v>351.1236393112667</v>
       </c>
       <c r="C35" t="n">
-        <v>333.6626894187936</v>
+        <v>333.6626894187938</v>
       </c>
       <c r="D35" t="n">
-        <v>323.072839268469</v>
+        <v>323.0728392684691</v>
       </c>
       <c r="E35" t="n">
-        <v>350.3201677200478</v>
+        <v>350.3201677200479</v>
       </c>
       <c r="F35" t="n">
-        <v>375.2658433894975</v>
+        <v>375.2658433894976</v>
       </c>
       <c r="G35" t="n">
-        <v>378.5542040247498</v>
+        <v>378.5542040247499</v>
       </c>
       <c r="H35" t="n">
-        <v>255.2416659947559</v>
+        <v>255.2416659947561</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,25 +3314,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>60.32014642295177</v>
+        <v>60.32014642295189</v>
       </c>
       <c r="T35" t="n">
-        <v>168.9926026545724</v>
+        <v>168.9926026545725</v>
       </c>
       <c r="U35" t="n">
-        <v>219.3243840645689</v>
+        <v>219.324384064569</v>
       </c>
       <c r="V35" t="n">
-        <v>296.142056117921</v>
+        <v>296.1420561179211</v>
       </c>
       <c r="W35" t="n">
-        <v>317.6307663651991</v>
+        <v>317.6307663651992</v>
       </c>
       <c r="X35" t="n">
-        <v>338.1208983262551</v>
+        <v>338.1208983262552</v>
       </c>
       <c r="Y35" t="n">
-        <v>354.6277363038396</v>
+        <v>354.6277363038398</v>
       </c>
     </row>
     <row r="36">
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>148.2217778297234</v>
+        <v>148.2217778297235</v>
       </c>
       <c r="C37" t="n">
-        <v>135.6366187464139</v>
+        <v>135.636618746414</v>
       </c>
       <c r="D37" t="n">
-        <v>117.0052706659984</v>
+        <v>117.0052706659986</v>
       </c>
       <c r="E37" t="n">
-        <v>114.8237602943552</v>
+        <v>114.8237602943522</v>
       </c>
       <c r="F37" t="n">
-        <v>113.8108456707173</v>
+        <v>113.8108456707174</v>
       </c>
       <c r="G37" t="n">
-        <v>134.0758985510282</v>
+        <v>134.0758985510283</v>
       </c>
       <c r="H37" t="n">
-        <v>110.1245053442997</v>
+        <v>110.1245053442998</v>
       </c>
       <c r="I37" t="n">
-        <v>54.52629139453013</v>
+        <v>54.52629139453026</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.04747230221578</v>
+        <v>42.04747230221591</v>
       </c>
       <c r="S37" t="n">
-        <v>152.2386502424833</v>
+        <v>152.2386502424835</v>
       </c>
       <c r="T37" t="n">
-        <v>186.4872700401421</v>
+        <v>186.4872700401422</v>
       </c>
       <c r="U37" t="n">
-        <v>254.5831063612652</v>
+        <v>254.5831063612653</v>
       </c>
       <c r="V37" t="n">
-        <v>220.5274409716141</v>
+        <v>220.5274409716142</v>
       </c>
       <c r="W37" t="n">
-        <v>254.9127959843771</v>
+        <v>254.9127959843772</v>
       </c>
       <c r="X37" t="n">
-        <v>194.0994530368232</v>
+        <v>194.0994530368233</v>
       </c>
       <c r="Y37" t="n">
-        <v>186.9744509998809</v>
+        <v>186.974450999881</v>
       </c>
     </row>
     <row r="38">
@@ -3500,16 +3500,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>351.1236393112666</v>
+        <v>351.1236393112667</v>
       </c>
       <c r="C38" t="n">
-        <v>333.6626894187936</v>
+        <v>333.6626894187937</v>
       </c>
       <c r="D38" t="n">
-        <v>323.072839268469</v>
+        <v>323.0728392684691</v>
       </c>
       <c r="E38" t="n">
-        <v>350.3201677200478</v>
+        <v>350.3201677200479</v>
       </c>
       <c r="F38" t="n">
         <v>375.2658433894975</v>
@@ -3518,7 +3518,7 @@
         <v>378.5542040247498</v>
       </c>
       <c r="H38" t="n">
-        <v>255.2416659947559</v>
+        <v>255.241665994756</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,16 +3551,16 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>60.32014642295175</v>
+        <v>60.32014642295184</v>
       </c>
       <c r="T38" t="n">
         <v>168.9926026545724</v>
       </c>
       <c r="U38" t="n">
-        <v>219.3243840645688</v>
+        <v>219.3243840645689</v>
       </c>
       <c r="V38" t="n">
-        <v>296.142056117921</v>
+        <v>296.1420561179206</v>
       </c>
       <c r="W38" t="n">
         <v>317.6307663651991</v>
@@ -3569,7 +3569,7 @@
         <v>338.1208983262551</v>
       </c>
       <c r="Y38" t="n">
-        <v>354.6277363038396</v>
+        <v>354.6277363038397</v>
       </c>
     </row>
     <row r="39">
@@ -3664,22 +3664,22 @@
         <v>135.6366187464139</v>
       </c>
       <c r="D40" t="n">
-        <v>117.0052706659984</v>
+        <v>117.0052706659985</v>
       </c>
       <c r="E40" t="n">
-        <v>114.8237602943552</v>
+        <v>114.8237602943553</v>
       </c>
       <c r="F40" t="n">
-        <v>113.8108456707173</v>
+        <v>113.810845670716</v>
       </c>
       <c r="G40" t="n">
-        <v>134.0758985510282</v>
+        <v>134.0758985510283</v>
       </c>
       <c r="H40" t="n">
-        <v>110.1245053442997</v>
+        <v>110.1245053442998</v>
       </c>
       <c r="I40" t="n">
-        <v>54.52629139453011</v>
+        <v>54.52629139453019</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.04747230221576</v>
+        <v>42.04747230221584</v>
       </c>
       <c r="S40" t="n">
-        <v>152.2386502424833</v>
+        <v>152.2386502424834</v>
       </c>
       <c r="T40" t="n">
-        <v>186.487270040142</v>
+        <v>186.4872700401421</v>
       </c>
       <c r="U40" t="n">
         <v>254.5831063612652</v>
@@ -3724,10 +3724,10 @@
         <v>254.9127959843771</v>
       </c>
       <c r="X40" t="n">
-        <v>194.0994530368232</v>
+        <v>194.0994530368233</v>
       </c>
       <c r="Y40" t="n">
-        <v>186.9744509998808</v>
+        <v>186.9744509998809</v>
       </c>
     </row>
     <row r="41">
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>60.32014642295181</v>
+        <v>60.32014642295184</v>
       </c>
       <c r="T41" t="n">
         <v>168.9926026545724</v>
@@ -3901,22 +3901,22 @@
         <v>135.6366187464139</v>
       </c>
       <c r="D43" t="n">
-        <v>117.0052706659972</v>
+        <v>117.0052706659985</v>
       </c>
       <c r="E43" t="n">
         <v>114.8237602943553</v>
       </c>
       <c r="F43" t="n">
-        <v>113.8108456707174</v>
+        <v>113.8108456707157</v>
       </c>
       <c r="G43" t="n">
-        <v>134.0758985510282</v>
+        <v>134.0758985510283</v>
       </c>
       <c r="H43" t="n">
         <v>110.1245053442998</v>
       </c>
       <c r="I43" t="n">
-        <v>54.52629139453018</v>
+        <v>54.52629139453019</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.04747230221582</v>
+        <v>42.04747230221584</v>
       </c>
       <c r="S43" t="n">
         <v>152.2386502424834</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>60.32014642295181</v>
+        <v>60.32014642295182</v>
       </c>
       <c r="T44" t="n">
         <v>168.9926026545724</v>
@@ -4138,22 +4138,22 @@
         <v>135.6366187464139</v>
       </c>
       <c r="D46" t="n">
-        <v>117.0052706659977</v>
+        <v>117.0052706659985</v>
       </c>
       <c r="E46" t="n">
         <v>114.8237602943553</v>
       </c>
       <c r="F46" t="n">
-        <v>113.8108456707174</v>
+        <v>113.8108456707163</v>
       </c>
       <c r="G46" t="n">
-        <v>134.0758985510282</v>
+        <v>134.0758985510283</v>
       </c>
       <c r="H46" t="n">
         <v>110.1245053442998</v>
       </c>
       <c r="I46" t="n">
-        <v>54.52629139453018</v>
+        <v>54.52629139453019</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.04747230221582</v>
+        <v>42.04747230221584</v>
       </c>
       <c r="S46" t="n">
         <v>152.2386502424834</v>
@@ -4304,13 +4304,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>21.38658590694733</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="C2" t="n">
-        <v>21.38658590694733</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="D2" t="n">
-        <v>21.38658590694733</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="E2" t="n">
         <v>14.44108515774386</v>
@@ -4331,19 +4331,19 @@
         <v>0.5500836593369149</v>
       </c>
       <c r="K2" t="n">
-        <v>0.5500836593369149</v>
+        <v>7.082327113962777</v>
       </c>
       <c r="L2" t="n">
-        <v>0.5500836593369149</v>
+        <v>7.082327113962777</v>
       </c>
       <c r="M2" t="n">
-        <v>0.5500836593369149</v>
+        <v>7.082327113962777</v>
       </c>
       <c r="N2" t="n">
-        <v>7.357368943631237</v>
+        <v>7.082327113962777</v>
       </c>
       <c r="O2" t="n">
-        <v>14.16465422792556</v>
+        <v>13.8896123982571</v>
       </c>
       <c r="P2" t="n">
         <v>20.69689768255142</v>
@@ -4355,25 +4355,25 @@
         <v>27.50418296684575</v>
       </c>
       <c r="S2" t="n">
-        <v>27.50418296684575</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="T2" t="n">
-        <v>27.50418296684575</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="U2" t="n">
-        <v>27.50418296684575</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="V2" t="n">
-        <v>27.50418296684575</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="W2" t="n">
-        <v>27.50418296684575</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="X2" t="n">
-        <v>21.38658590694733</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="Y2" t="n">
-        <v>21.38658590694733</v>
+        <v>14.44108515774386</v>
       </c>
     </row>
     <row r="3">
@@ -4386,22 +4386,22 @@
         <v>13.6131814684388</v>
       </c>
       <c r="C3" t="n">
-        <v>6.667680719235332</v>
+        <v>13.6131814684388</v>
       </c>
       <c r="D3" t="n">
-        <v>6.667680719235332</v>
+        <v>13.6131814684388</v>
       </c>
       <c r="E3" t="n">
-        <v>6.667680719235332</v>
+        <v>13.6131814684388</v>
       </c>
       <c r="F3" t="n">
         <v>6.667680719235332</v>
       </c>
       <c r="G3" t="n">
-        <v>6.667680719235332</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="H3" t="n">
-        <v>6.667680719235332</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="I3" t="n">
         <v>0.5500836593369149</v>
@@ -4431,10 +4431,10 @@
         <v>27.50418296684575</v>
       </c>
       <c r="R3" t="n">
-        <v>27.50418296684575</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="S3" t="n">
-        <v>27.50418296684575</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="T3" t="n">
         <v>20.55868221764227</v>
@@ -4462,22 +4462,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>14.44108515774386</v>
+        <v>6.667680719235332</v>
       </c>
       <c r="C4" t="n">
-        <v>14.44108515774386</v>
+        <v>6.667680719235332</v>
       </c>
       <c r="D4" t="n">
-        <v>14.44108515774386</v>
+        <v>6.667680719235332</v>
       </c>
       <c r="E4" t="n">
-        <v>7.495584408540386</v>
+        <v>6.667680719235332</v>
       </c>
       <c r="F4" t="n">
-        <v>7.495584408540386</v>
+        <v>6.667680719235332</v>
       </c>
       <c r="G4" t="n">
-        <v>7.495584408540386</v>
+        <v>6.667680719235332</v>
       </c>
       <c r="H4" t="n">
         <v>0.5500836593369149</v>
@@ -4495,13 +4495,13 @@
         <v>7.357368943631237</v>
       </c>
       <c r="M4" t="n">
-        <v>7.357368943631237</v>
+        <v>13.8896123982571</v>
       </c>
       <c r="N4" t="n">
-        <v>13.8896123982571</v>
+        <v>20.69689768255142</v>
       </c>
       <c r="O4" t="n">
-        <v>20.69689768255142</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="P4" t="n">
         <v>27.50418296684575</v>
@@ -4513,25 +4513,25 @@
         <v>20.55868221764227</v>
       </c>
       <c r="S4" t="n">
-        <v>14.44108515774386</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="T4" t="n">
-        <v>14.44108515774386</v>
+        <v>13.6131814684388</v>
       </c>
       <c r="U4" t="n">
-        <v>14.44108515774386</v>
+        <v>13.6131814684388</v>
       </c>
       <c r="V4" t="n">
-        <v>14.44108515774386</v>
+        <v>13.6131814684388</v>
       </c>
       <c r="W4" t="n">
-        <v>14.44108515774386</v>
+        <v>13.6131814684388</v>
       </c>
       <c r="X4" t="n">
-        <v>14.44108515774386</v>
+        <v>13.6131814684388</v>
       </c>
       <c r="Y4" t="n">
-        <v>14.44108515774386</v>
+        <v>6.667680719235332</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>166.6913945759427</v>
+        <v>172.5534651716623</v>
       </c>
       <c r="C5" t="n">
-        <v>166.6913945759427</v>
+        <v>116.5150574126137</v>
       </c>
       <c r="D5" t="n">
-        <v>166.6913945759427</v>
+        <v>116.5150574126137</v>
       </c>
       <c r="E5" t="n">
-        <v>166.6913945759427</v>
+        <v>116.5150574126137</v>
       </c>
       <c r="F5" t="n">
-        <v>130.4415181779887</v>
+        <v>60.47664965356518</v>
       </c>
       <c r="G5" t="n">
-        <v>116.5150574126154</v>
+        <v>4.438241894516644</v>
       </c>
       <c r="H5" t="n">
-        <v>60.47664965356608</v>
+        <v>4.438241894516644</v>
       </c>
       <c r="I5" t="n">
-        <v>4.43824189451671</v>
+        <v>4.438241894516644</v>
       </c>
       <c r="J5" t="n">
-        <v>4.43824189451671</v>
+        <v>4.438241894516644</v>
       </c>
       <c r="K5" t="n">
-        <v>59.36148533916099</v>
+        <v>59.3614853391601</v>
       </c>
       <c r="L5" t="n">
-        <v>114.2847287838053</v>
+        <v>62.72488935162615</v>
       </c>
       <c r="M5" t="n">
-        <v>149.6966012503491</v>
+        <v>98.13676181816922</v>
       </c>
       <c r="N5" t="n">
-        <v>196.9111718378951</v>
+        <v>153.0600052628127</v>
       </c>
       <c r="O5" t="n">
-        <v>221.9120947258355</v>
+        <v>178.0609281507523</v>
       </c>
       <c r="P5" t="n">
-        <v>221.9120947258355</v>
+        <v>221.9120947258322</v>
       </c>
       <c r="Q5" t="n">
-        <v>221.9120947258355</v>
+        <v>221.9120947258322</v>
       </c>
       <c r="R5" t="n">
-        <v>166.6913945759427</v>
+        <v>221.9120947258322</v>
       </c>
       <c r="S5" t="n">
-        <v>166.6913945759427</v>
+        <v>221.9120947258322</v>
       </c>
       <c r="T5" t="n">
-        <v>166.6913945759427</v>
+        <v>221.9120947258322</v>
       </c>
       <c r="U5" t="n">
-        <v>166.6913945759427</v>
+        <v>221.9120947258322</v>
       </c>
       <c r="V5" t="n">
-        <v>166.6913945759427</v>
+        <v>221.9120947258322</v>
       </c>
       <c r="W5" t="n">
-        <v>166.6913945759427</v>
+        <v>221.9120947258322</v>
       </c>
       <c r="X5" t="n">
-        <v>166.6913945759427</v>
+        <v>221.9120947258322</v>
       </c>
       <c r="Y5" t="n">
-        <v>166.6913945759427</v>
+        <v>221.9120947258322</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>115.5587731054755</v>
+        <v>60.47664965356518</v>
       </c>
       <c r="C6" t="n">
-        <v>115.5587731054755</v>
+        <v>60.47664965356518</v>
       </c>
       <c r="D6" t="n">
-        <v>115.5587731054755</v>
+        <v>4.438241894516644</v>
       </c>
       <c r="E6" t="n">
-        <v>115.5587731054755</v>
+        <v>4.438241894516644</v>
       </c>
       <c r="F6" t="n">
-        <v>115.5587731054755</v>
+        <v>4.438241894516644</v>
       </c>
       <c r="G6" t="n">
-        <v>60.47664965356608</v>
+        <v>4.438241894516644</v>
       </c>
       <c r="H6" t="n">
-        <v>4.43824189451671</v>
+        <v>4.438241894516644</v>
       </c>
       <c r="I6" t="n">
-        <v>4.43824189451671</v>
+        <v>4.438241894516644</v>
       </c>
       <c r="J6" t="n">
-        <v>4.43824189451671</v>
+        <v>4.438241894516644</v>
       </c>
       <c r="K6" t="n">
-        <v>4.43824189451671</v>
+        <v>4.438241894516644</v>
       </c>
       <c r="L6" t="n">
-        <v>41.57417741979964</v>
+        <v>41.57417741979897</v>
       </c>
       <c r="M6" t="n">
-        <v>96.49742086444392</v>
+        <v>96.49742086444243</v>
       </c>
       <c r="N6" t="n">
-        <v>151.4206643090882</v>
+        <v>151.4206643090859</v>
       </c>
       <c r="O6" t="n">
-        <v>201.2515122951434</v>
+        <v>201.2515122951406</v>
       </c>
       <c r="P6" t="n">
-        <v>221.9120947258355</v>
+        <v>221.9120947258322</v>
       </c>
       <c r="Q6" t="n">
-        <v>221.9120947258355</v>
+        <v>221.9120947258322</v>
       </c>
       <c r="R6" t="n">
-        <v>171.5971808645249</v>
+        <v>171.5971808645214</v>
       </c>
       <c r="S6" t="n">
-        <v>171.5971808645249</v>
+        <v>171.5971808645214</v>
       </c>
       <c r="T6" t="n">
-        <v>115.5587731054755</v>
+        <v>115.5587731054729</v>
       </c>
       <c r="U6" t="n">
-        <v>115.5587731054755</v>
+        <v>115.5587731054729</v>
       </c>
       <c r="V6" t="n">
-        <v>115.5587731054755</v>
+        <v>115.5587731054729</v>
       </c>
       <c r="W6" t="n">
-        <v>115.5587731054755</v>
+        <v>115.5587731054729</v>
       </c>
       <c r="X6" t="n">
-        <v>115.5587731054755</v>
+        <v>60.47664965356518</v>
       </c>
       <c r="Y6" t="n">
-        <v>115.5587731054755</v>
+        <v>60.47664965356518</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>116.5150574126154</v>
+        <v>80.30354643958464</v>
       </c>
       <c r="C7" t="n">
-        <v>116.5150574126154</v>
+        <v>80.30354643958464</v>
       </c>
       <c r="D7" t="n">
-        <v>116.5150574126154</v>
+        <v>80.30354643958464</v>
       </c>
       <c r="E7" t="n">
-        <v>116.5150574126154</v>
+        <v>80.30354643958464</v>
       </c>
       <c r="F7" t="n">
-        <v>60.47664965356608</v>
+        <v>80.30354643958464</v>
       </c>
       <c r="G7" t="n">
-        <v>60.47664965356608</v>
+        <v>50.19170537162547</v>
       </c>
       <c r="H7" t="n">
-        <v>60.47664965356608</v>
+        <v>50.19170537162547</v>
       </c>
       <c r="I7" t="n">
-        <v>4.43824189451671</v>
+        <v>50.19170537162547</v>
       </c>
       <c r="J7" t="n">
-        <v>4.43824189451671</v>
+        <v>4.438241894516644</v>
       </c>
       <c r="K7" t="n">
-        <v>4.43824189451671</v>
+        <v>59.3614853391601</v>
       </c>
       <c r="L7" t="n">
-        <v>59.36148533916099</v>
+        <v>114.2847287838036</v>
       </c>
       <c r="M7" t="n">
-        <v>112.0656078365469</v>
+        <v>169.207972228447</v>
       </c>
       <c r="N7" t="n">
-        <v>166.9888512811912</v>
+        <v>169.207972228447</v>
       </c>
       <c r="O7" t="n">
-        <v>221.9120947258355</v>
+        <v>221.9120947258322</v>
       </c>
       <c r="P7" t="n">
-        <v>221.9120947258355</v>
+        <v>221.9120947258322</v>
       </c>
       <c r="Q7" t="n">
-        <v>192.3803619576852</v>
+        <v>192.3803619576817</v>
       </c>
       <c r="R7" t="n">
-        <v>136.3419541986358</v>
+        <v>192.3803619576817</v>
       </c>
       <c r="S7" t="n">
-        <v>136.3419541986358</v>
+        <v>192.3803619576817</v>
       </c>
       <c r="T7" t="n">
-        <v>116.5150574126154</v>
+        <v>192.3803619576817</v>
       </c>
       <c r="U7" t="n">
-        <v>116.5150574126154</v>
+        <v>192.3803619576817</v>
       </c>
       <c r="V7" t="n">
-        <v>116.5150574126154</v>
+        <v>192.3803619576817</v>
       </c>
       <c r="W7" t="n">
-        <v>116.5150574126154</v>
+        <v>192.3803619576817</v>
       </c>
       <c r="X7" t="n">
-        <v>116.5150574126154</v>
+        <v>136.3419541986332</v>
       </c>
       <c r="Y7" t="n">
-        <v>116.5150574126154</v>
+        <v>80.30354643958464</v>
       </c>
     </row>
     <row r="8">
@@ -4778,31 +4778,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>170.3628934706925</v>
+        <v>710.0001061843504</v>
       </c>
       <c r="C8" t="n">
-        <v>35.17768229832527</v>
+        <v>710.0001061843504</v>
       </c>
       <c r="D8" t="n">
-        <v>35.17768229832527</v>
+        <v>710.0001061843504</v>
       </c>
       <c r="E8" t="n">
-        <v>35.17768229832527</v>
+        <v>710.0001061843504</v>
       </c>
       <c r="F8" t="n">
-        <v>28.2321815491218</v>
+        <v>520.5803211678657</v>
       </c>
       <c r="G8" t="n">
-        <v>15.00204697330559</v>
+        <v>331.1605361513809</v>
       </c>
       <c r="H8" t="n">
-        <v>15.00204697330559</v>
+        <v>141.7407511348962</v>
       </c>
       <c r="I8" t="n">
         <v>15.00204697330559</v>
       </c>
       <c r="J8" t="n">
-        <v>21.03371160678489</v>
+        <v>21.03371160678478</v>
       </c>
       <c r="K8" t="n">
         <v>80.81213159058939</v>
@@ -4811,10 +4811,10 @@
         <v>191.8743094079184</v>
       </c>
       <c r="M8" t="n">
-        <v>347.1218190644754</v>
+        <v>347.1218190644753</v>
       </c>
       <c r="N8" t="n">
-        <v>509.4952041123828</v>
+        <v>509.4952041123826</v>
       </c>
       <c r="O8" t="n">
         <v>649.4845259985582</v>
@@ -4832,22 +4832,22 @@
         <v>738.6222485201467</v>
       </c>
       <c r="T8" t="n">
-        <v>738.6222485201467</v>
+        <v>710.0001061843504</v>
       </c>
       <c r="U8" t="n">
-        <v>738.6222485201467</v>
+        <v>710.0001061843504</v>
       </c>
       <c r="V8" t="n">
-        <v>738.6222485201467</v>
+        <v>710.0001061843504</v>
       </c>
       <c r="W8" t="n">
-        <v>549.202463503662</v>
+        <v>710.0001061843504</v>
       </c>
       <c r="X8" t="n">
-        <v>359.7826784871772</v>
+        <v>710.0001061843504</v>
       </c>
       <c r="Y8" t="n">
-        <v>170.3628934706925</v>
+        <v>710.0001061843504</v>
       </c>
     </row>
     <row r="9">
@@ -4857,25 +4857,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>750.1023486652795</v>
+        <v>189.4550762544326</v>
       </c>
       <c r="C9" t="n">
-        <v>750.1023486652795</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="D9" t="n">
-        <v>601.1679390040282</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="E9" t="n">
-        <v>450.2076741100789</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="F9" t="n">
-        <v>303.6731161369638</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="G9" t="n">
-        <v>166.133934959413</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H9" t="n">
-        <v>64.27357399906981</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I9" t="n">
         <v>15.00204697330559</v>
@@ -4890,10 +4890,10 @@
         <v>183.5548280772649</v>
       </c>
       <c r="M9" t="n">
-        <v>338.7690911140244</v>
+        <v>338.7690911140243</v>
       </c>
       <c r="N9" t="n">
-        <v>512.5000587546598</v>
+        <v>512.50005875466</v>
       </c>
       <c r="O9" t="n">
         <v>649.2101578476347</v>
@@ -4905,28 +4905,28 @@
         <v>750.1023486652795</v>
       </c>
       <c r="R9" t="n">
-        <v>750.1023486652795</v>
+        <v>722.9192922843275</v>
       </c>
       <c r="S9" t="n">
-        <v>750.1023486652795</v>
+        <v>722.9192922843275</v>
       </c>
       <c r="T9" t="n">
-        <v>750.1023486652795</v>
+        <v>722.9192922843275</v>
       </c>
       <c r="U9" t="n">
-        <v>750.1023486652795</v>
+        <v>533.4995072678428</v>
       </c>
       <c r="V9" t="n">
-        <v>750.1023486652795</v>
+        <v>357.6704132745007</v>
       </c>
       <c r="W9" t="n">
-        <v>750.1023486652795</v>
+        <v>357.6704132745007</v>
       </c>
       <c r="X9" t="n">
-        <v>750.1023486652795</v>
+        <v>357.6704132745007</v>
       </c>
       <c r="Y9" t="n">
-        <v>750.1023486652795</v>
+        <v>357.6704132745007</v>
       </c>
     </row>
     <row r="10">
@@ -4936,25 +4936,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>671.1005573534807</v>
+        <v>612.5614882768591</v>
       </c>
       <c r="C10" t="n">
-        <v>502.1643744255738</v>
+        <v>443.6253053489522</v>
       </c>
       <c r="D10" t="n">
-        <v>502.1643744255738</v>
+        <v>443.6253053489522</v>
       </c>
       <c r="E10" t="n">
-        <v>354.2512808431807</v>
+        <v>295.7122117665591</v>
       </c>
       <c r="F10" t="n">
-        <v>207.3613333452703</v>
+        <v>165.6494995757273</v>
       </c>
       <c r="G10" t="n">
-        <v>38.67250990818523</v>
+        <v>165.6494995757273</v>
       </c>
       <c r="H10" t="n">
-        <v>38.67250990818523</v>
+        <v>165.6494995757273</v>
       </c>
       <c r="I10" t="n">
         <v>38.67250990818523</v>
@@ -4963,19 +4963,19 @@
         <v>15.00204697330559</v>
       </c>
       <c r="K10" t="n">
-        <v>106.7151088594234</v>
+        <v>43.1759045242809</v>
       </c>
       <c r="L10" t="n">
-        <v>279.6026869745584</v>
+        <v>216.063482639416</v>
       </c>
       <c r="M10" t="n">
-        <v>448.2056470819953</v>
+        <v>401.7138139340726</v>
       </c>
       <c r="N10" t="n">
-        <v>471.6341805242515</v>
+        <v>587.3641452287293</v>
       </c>
       <c r="O10" t="n">
-        <v>634.3723839608017</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="P10" t="n">
         <v>750.1023486652795</v>
@@ -4984,28 +4984,28 @@
         <v>746.7254979846272</v>
       </c>
       <c r="R10" t="n">
-        <v>746.7254979846272</v>
+        <v>612.5614882768591</v>
       </c>
       <c r="S10" t="n">
-        <v>746.7254979846272</v>
+        <v>612.5614882768591</v>
       </c>
       <c r="T10" t="n">
-        <v>671.1005573534807</v>
+        <v>612.5614882768591</v>
       </c>
       <c r="U10" t="n">
-        <v>671.1005573534807</v>
+        <v>612.5614882768591</v>
       </c>
       <c r="V10" t="n">
-        <v>671.1005573534807</v>
+        <v>612.5614882768591</v>
       </c>
       <c r="W10" t="n">
-        <v>671.1005573534807</v>
+        <v>612.5614882768591</v>
       </c>
       <c r="X10" t="n">
-        <v>671.1005573534807</v>
+        <v>612.5614882768591</v>
       </c>
       <c r="Y10" t="n">
-        <v>671.1005573534807</v>
+        <v>612.5614882768591</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1844.338003964586</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C11" t="n">
-        <v>1475.375487024174</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D11" t="n">
-        <v>1117.109788417424</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E11" t="n">
-        <v>731.3215358191796</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F11" t="n">
-        <v>481.5845665871869</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G11" t="n">
-        <v>66.5121164321834</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H11" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I11" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q11" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R11" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S11" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T11" t="n">
-        <v>3325.60582160917</v>
+        <v>3282.529458013813</v>
       </c>
       <c r="U11" t="n">
-        <v>3325.60582160917</v>
+        <v>3028.99898128765</v>
       </c>
       <c r="V11" t="n">
-        <v>2994.542934265599</v>
+        <v>2697.936093944079</v>
       </c>
       <c r="W11" t="n">
-        <v>2994.542934265599</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="X11" t="n">
-        <v>2621.07717600452</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="Y11" t="n">
-        <v>2230.937844028708</v>
+        <v>2345.167438673965</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D12" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G12" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I12" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228006</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031475</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L12" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M12" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N12" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R12" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S12" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T12" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V12" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W12" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="13">
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>500.476813167026</v>
+        <v>142.0249360836216</v>
       </c>
       <c r="C13" t="n">
-        <v>331.5406302391191</v>
+        <v>142.0249360836216</v>
       </c>
       <c r="D13" t="n">
-        <v>331.5406302391191</v>
+        <v>142.0249360836216</v>
       </c>
       <c r="E13" t="n">
-        <v>331.5406302391191</v>
+        <v>142.0249360836216</v>
       </c>
       <c r="F13" t="n">
-        <v>331.5406302391191</v>
+        <v>142.0249360836217</v>
       </c>
       <c r="G13" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H13" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I13" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J13" t="n">
         <v>111.634748879119</v>
@@ -5233,16 +5233,16 @@
         <v>1134.908724368016</v>
       </c>
       <c r="V13" t="n">
-        <v>1134.908724368016</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W13" t="n">
-        <v>1130.907408038813</v>
+        <v>590.8070661251691</v>
       </c>
       <c r="X13" t="n">
-        <v>902.9178571407958</v>
+        <v>362.8175152271517</v>
       </c>
       <c r="Y13" t="n">
-        <v>682.1252779972657</v>
+        <v>142.0249360836216</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1978.276798776247</v>
+        <v>2336.51425907713</v>
       </c>
       <c r="C14" t="n">
-        <v>1609.314281835835</v>
+        <v>1967.551742136718</v>
       </c>
       <c r="D14" t="n">
-        <v>1251.048583229085</v>
+        <v>1609.286043529968</v>
       </c>
       <c r="E14" t="n">
         <v>1223.497790931723</v>
       </c>
       <c r="F14" t="n">
-        <v>812.5118861421156</v>
+        <v>812.5118861421158</v>
       </c>
       <c r="G14" t="n">
-        <v>397.7767759805952</v>
+        <v>397.7767759805954</v>
       </c>
       <c r="H14" t="n">
-        <v>103.647958797622</v>
+        <v>103.6479587976221</v>
       </c>
       <c r="I14" t="n">
-        <v>74.65636013585066</v>
+        <v>74.65636013585059</v>
       </c>
       <c r="J14" t="n">
-        <v>291.5970382923578</v>
+        <v>291.5970382923574</v>
       </c>
       <c r="K14" t="n">
-        <v>667.4733970255379</v>
+        <v>667.4733970255375</v>
       </c>
       <c r="L14" t="n">
-        <v>1170.683019153212</v>
+        <v>1170.683019153211</v>
       </c>
       <c r="M14" t="n">
-        <v>1762.270119328337</v>
+        <v>1762.270119328336</v>
       </c>
       <c r="N14" t="n">
-        <v>2368.043525648401</v>
+        <v>2368.043525648398</v>
       </c>
       <c r="O14" t="n">
-        <v>2926.722914277568</v>
+        <v>2926.722914277565</v>
       </c>
       <c r="P14" t="n">
-        <v>3369.041846109134</v>
+        <v>3369.041846109131</v>
       </c>
       <c r="Q14" t="n">
-        <v>3653.032196494069</v>
+        <v>3653.032196494065</v>
       </c>
       <c r="R14" t="n">
-        <v>3732.818006792533</v>
+        <v>3732.818006792529</v>
       </c>
       <c r="S14" t="n">
-        <v>3630.214473421126</v>
+        <v>3732.818006792529</v>
       </c>
       <c r="T14" t="n">
-        <v>3425.713431626824</v>
+        <v>3702.85200219913</v>
       </c>
       <c r="U14" t="n">
-        <v>3425.713431626824</v>
+        <v>3449.348512672446</v>
       </c>
       <c r="V14" t="n">
-        <v>3094.650544283253</v>
+        <v>3449.348512672446</v>
       </c>
       <c r="W14" t="n">
-        <v>2741.881889013139</v>
+        <v>3096.579857402332</v>
       </c>
       <c r="X14" t="n">
-        <v>2368.416130752059</v>
+        <v>2723.114099141252</v>
       </c>
       <c r="Y14" t="n">
-        <v>1978.276798776247</v>
+        <v>2723.114099141252</v>
       </c>
     </row>
     <row r="15">
@@ -5352,31 +5352,31 @@
         <v>87.44931599351395</v>
       </c>
       <c r="I15" t="n">
-        <v>74.65636013585066</v>
+        <v>74.65636013585059</v>
       </c>
       <c r="J15" t="n">
-        <v>185.0468948964443</v>
+        <v>74.65636013585059</v>
       </c>
       <c r="K15" t="n">
-        <v>451.8767262729068</v>
+        <v>155.6890669347699</v>
       </c>
       <c r="L15" t="n">
-        <v>856.9849045601406</v>
+        <v>560.7972452220033</v>
       </c>
       <c r="M15" t="n">
-        <v>1349.083909075272</v>
+        <v>1052.896249737134</v>
       </c>
       <c r="N15" t="n">
-        <v>1583.270194505032</v>
+        <v>1572.428295531239</v>
       </c>
       <c r="O15" t="n">
-        <v>2036.32072238418</v>
+        <v>2025.478823410387</v>
       </c>
       <c r="P15" t="n">
-        <v>2380.600646404001</v>
+        <v>2369.758747430207</v>
       </c>
       <c r="Q15" t="n">
-        <v>2560.823461764606</v>
+        <v>2549.981562790812</v>
       </c>
       <c r="R15" t="n">
         <v>2560.823461764606</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>618.8389424739146</v>
+        <v>221.5463076337609</v>
       </c>
       <c r="C16" t="n">
-        <v>533.9696475028848</v>
+        <v>221.5463076337609</v>
       </c>
       <c r="D16" t="n">
-        <v>533.9696475028845</v>
+        <v>221.5463076337609</v>
       </c>
       <c r="E16" t="n">
-        <v>533.9696475028845</v>
+        <v>221.5463076337609</v>
       </c>
       <c r="F16" t="n">
-        <v>387.0797000049741</v>
+        <v>74.65636013585059</v>
       </c>
       <c r="G16" t="n">
-        <v>219.5281824874256</v>
+        <v>74.65636013585059</v>
       </c>
       <c r="H16" t="n">
-        <v>74.65636013585065</v>
+        <v>74.65636013585059</v>
       </c>
       <c r="I16" t="n">
-        <v>74.65636013585065</v>
+        <v>74.65636013585059</v>
       </c>
       <c r="J16" t="n">
-        <v>130.2643581072327</v>
+        <v>130.2643581072326</v>
       </c>
       <c r="K16" t="n">
-        <v>351.4822175897887</v>
+        <v>351.4822175897884</v>
       </c>
       <c r="L16" t="n">
-        <v>690.0913496870952</v>
+        <v>690.0913496870946</v>
       </c>
       <c r="M16" t="n">
-        <v>1057.496326074613</v>
+        <v>1057.496326074612</v>
       </c>
       <c r="N16" t="n">
-        <v>1421.599849735988</v>
+        <v>1421.599849735987</v>
       </c>
       <c r="O16" t="n">
-        <v>1741.892090185795</v>
+        <v>1741.892090185794</v>
       </c>
       <c r="P16" t="n">
-        <v>1992.43675185608</v>
+        <v>1992.436751856079</v>
       </c>
       <c r="Q16" t="n">
-        <v>2082.465808693393</v>
+        <v>2082.465808693392</v>
       </c>
       <c r="R16" t="n">
-        <v>2082.465808693393</v>
+        <v>1999.439208785874</v>
       </c>
       <c r="S16" t="n">
-        <v>2082.465808693393</v>
+        <v>1810.390403972003</v>
       </c>
       <c r="T16" t="n">
-        <v>2082.465808693393</v>
+        <v>1589.270333820022</v>
       </c>
       <c r="U16" t="n">
-        <v>1793.371195588549</v>
+        <v>1396.078560748396</v>
       </c>
       <c r="V16" t="n">
-        <v>1538.686707382662</v>
+        <v>1141.394072542509</v>
       </c>
       <c r="W16" t="n">
-        <v>1249.269537345702</v>
+        <v>851.9769025055484</v>
       </c>
       <c r="X16" t="n">
-        <v>1021.279986447684</v>
+        <v>623.9873516075307</v>
       </c>
       <c r="Y16" t="n">
-        <v>800.4874073041543</v>
+        <v>403.1947724640006</v>
       </c>
     </row>
     <row r="17">
@@ -5498,55 +5498,55 @@
         <v>1458.093420216582</v>
       </c>
       <c r="E17" t="n">
-        <v>1104.234664943807</v>
+        <v>1104.234664943806</v>
       </c>
       <c r="F17" t="n">
-        <v>725.178257479668</v>
+        <v>725.1782574796675</v>
       </c>
       <c r="G17" t="n">
-        <v>342.8002736162839</v>
+        <v>342.8002736162838</v>
       </c>
       <c r="H17" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511626</v>
       </c>
       <c r="I17" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511626</v>
       </c>
       <c r="J17" t="n">
         <v>337.4933016076839</v>
       </c>
       <c r="K17" t="n">
-        <v>766.683188695145</v>
+        <v>766.6831886951459</v>
       </c>
       <c r="L17" t="n">
-        <v>1336.032957050963</v>
+        <v>1336.032957050964</v>
       </c>
       <c r="M17" t="n">
-        <v>2001.213713746738</v>
+        <v>2001.21371374674</v>
       </c>
       <c r="N17" t="n">
-        <v>2681.771598889755</v>
+        <v>2681.771598889757</v>
       </c>
       <c r="O17" t="n">
-        <v>3311.067850233288</v>
+        <v>3311.067850233289</v>
       </c>
       <c r="P17" t="n">
-        <v>3813.656640612704</v>
+        <v>3813.656640612705</v>
       </c>
       <c r="Q17" t="n">
-        <v>4142.907144767229</v>
+        <v>4142.90714476723</v>
       </c>
       <c r="R17" t="n">
-        <v>4249.020448755812</v>
+        <v>4249.020448755813</v>
       </c>
       <c r="S17" t="n">
-        <v>4188.091007924548</v>
+        <v>4188.091007924549</v>
       </c>
       <c r="T17" t="n">
-        <v>4017.391409283566</v>
+        <v>4017.391409283567</v>
       </c>
       <c r="U17" t="n">
-        <v>3795.851627400163</v>
+        <v>3795.851627400164</v>
       </c>
       <c r="V17" t="n">
         <v>3496.718237382061</v>
@@ -5589,25 +5589,25 @@
         <v>89.89576342177179</v>
       </c>
       <c r="I18" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511626</v>
       </c>
       <c r="J18" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511626</v>
       </c>
       <c r="K18" t="n">
-        <v>388.0214583249807</v>
+        <v>84.98040897511626</v>
       </c>
       <c r="L18" t="n">
-        <v>841.8200879193082</v>
+        <v>538.7790385694437</v>
       </c>
       <c r="M18" t="n">
-        <v>1390.738552529597</v>
+        <v>1087.697503179733</v>
       </c>
       <c r="N18" t="n">
-        <v>1968.593900456</v>
+        <v>1665.552851106136</v>
       </c>
       <c r="O18" t="n">
-        <v>2474.99885540425</v>
+        <v>2171.957806054386</v>
       </c>
       <c r="P18" t="n">
         <v>2555.644190323788</v>
@@ -5647,37 +5647,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>872.8624197502093</v>
+        <v>872.8624197502106</v>
       </c>
       <c r="C19" t="n">
-        <v>735.8557341477709</v>
+        <v>735.8557341477723</v>
       </c>
       <c r="D19" t="n">
-        <v>617.6685920609037</v>
+        <v>617.6685920609052</v>
       </c>
       <c r="E19" t="n">
-        <v>501.6849958039805</v>
+        <v>501.6849958039808</v>
       </c>
       <c r="F19" t="n">
-        <v>386.7245456315387</v>
+        <v>386.7245456315391</v>
       </c>
       <c r="G19" t="n">
-        <v>251.2943450749445</v>
+        <v>251.2943450749449</v>
       </c>
       <c r="H19" t="n">
-        <v>140.0574709897932</v>
+        <v>140.0574709897936</v>
       </c>
       <c r="I19" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511626</v>
       </c>
       <c r="J19" t="n">
-        <v>185.1742787042784</v>
+        <v>185.1742787042785</v>
       </c>
       <c r="K19" t="n">
-        <v>459.528702044361</v>
+        <v>459.5287020443611</v>
       </c>
       <c r="L19" t="n">
-        <v>857.3827676902785</v>
+        <v>857.3827676902788</v>
       </c>
       <c r="M19" t="n">
         <v>1285.552079040893</v>
@@ -5686,37 +5686,37 @@
         <v>1709.719201354973</v>
       </c>
       <c r="O19" t="n">
-        <v>2087.878830313935</v>
+        <v>2087.878830313936</v>
       </c>
       <c r="P19" t="n">
-        <v>2392.455631028688</v>
+        <v>2392.455631028689</v>
       </c>
       <c r="Q19" t="n">
-        <v>2529.521427597205</v>
+        <v>2529.521427597206</v>
       </c>
       <c r="R19" t="n">
-        <v>2487.049233352543</v>
+        <v>2487.049233352544</v>
       </c>
       <c r="S19" t="n">
         <v>2333.272818966196</v>
       </c>
       <c r="T19" t="n">
-        <v>2144.901839127668</v>
+        <v>2144.901839127669</v>
       </c>
       <c r="U19" t="n">
-        <v>1887.747186237501</v>
+        <v>1887.747186237502</v>
       </c>
       <c r="V19" t="n">
-        <v>1664.992195357083</v>
+        <v>1664.992195357084</v>
       </c>
       <c r="W19" t="n">
-        <v>1407.504522645591</v>
+        <v>1407.504522645592</v>
       </c>
       <c r="X19" t="n">
-        <v>1211.444469073042</v>
+        <v>1211.444469073043</v>
       </c>
       <c r="Y19" t="n">
-        <v>1022.58138725498</v>
+        <v>1022.581387254982</v>
       </c>
     </row>
     <row r="20">
@@ -5726,37 +5726,37 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2121.462641112806</v>
+        <v>2121.462641112807</v>
       </c>
       <c r="C20" t="n">
-        <v>1784.429621497863</v>
+        <v>1784.429621497864</v>
       </c>
       <c r="D20" t="n">
         <v>1458.093420216582</v>
       </c>
       <c r="E20" t="n">
-        <v>1104.234664943807</v>
+        <v>1104.234664943806</v>
       </c>
       <c r="F20" t="n">
         <v>725.1782574796675</v>
       </c>
       <c r="G20" t="n">
-        <v>342.8002736162839</v>
+        <v>342.8002736162838</v>
       </c>
       <c r="H20" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="I20" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="J20" t="n">
-        <v>337.4933016076836</v>
+        <v>337.4933016076839</v>
       </c>
       <c r="K20" t="n">
         <v>766.683188695145</v>
       </c>
       <c r="L20" t="n">
-        <v>1336.032957050963</v>
+        <v>1336.032957050964</v>
       </c>
       <c r="M20" t="n">
         <v>2001.213713746739</v>
@@ -5774,28 +5774,28 @@
         <v>4142.907144767229</v>
       </c>
       <c r="R20" t="n">
-        <v>4249.020448755811</v>
+        <v>4249.020448755812</v>
       </c>
       <c r="S20" t="n">
-        <v>4188.091007924547</v>
+        <v>4188.091007924548</v>
       </c>
       <c r="T20" t="n">
-        <v>4017.391409283565</v>
+        <v>4017.391409283566</v>
       </c>
       <c r="U20" t="n">
-        <v>3795.851627400161</v>
+        <v>3795.851627400162</v>
       </c>
       <c r="V20" t="n">
-        <v>3496.718237382059</v>
+        <v>3496.71823738206</v>
       </c>
       <c r="W20" t="n">
-        <v>3175.879079437414</v>
+        <v>3175.879079437415</v>
       </c>
       <c r="X20" t="n">
-        <v>2834.342818501802</v>
+        <v>2834.342818501804</v>
       </c>
       <c r="Y20" t="n">
-        <v>2476.132983851459</v>
+        <v>2476.132983851461</v>
       </c>
     </row>
     <row r="21">
@@ -5823,31 +5823,31 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H21" t="n">
-        <v>89.89576342177176</v>
+        <v>89.89576342177179</v>
       </c>
       <c r="I21" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="J21" t="n">
-        <v>84.98040897511622</v>
+        <v>216.557510983586</v>
       </c>
       <c r="K21" t="n">
-        <v>84.98040897511622</v>
+        <v>519.5985603334505</v>
       </c>
       <c r="L21" t="n">
-        <v>326.515925275411</v>
+        <v>973.3971899277778</v>
       </c>
       <c r="M21" t="n">
-        <v>875.4343898857001</v>
+        <v>1522.315654538067</v>
       </c>
       <c r="N21" t="n">
-        <v>1453.289737812102</v>
+        <v>2100.171002464469</v>
       </c>
       <c r="O21" t="n">
-        <v>1959.694692760353</v>
+        <v>2168.542634771632</v>
       </c>
       <c r="P21" t="n">
-        <v>2346.796248312508</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q21" t="n">
         <v>2555.644190323788</v>
@@ -5884,34 +5884,34 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>872.8624197502089</v>
+        <v>872.8624197502097</v>
       </c>
       <c r="C22" t="n">
-        <v>735.8557341477706</v>
+        <v>735.8557341477715</v>
       </c>
       <c r="D22" t="n">
-        <v>617.6685920609034</v>
+        <v>617.6685920609044</v>
       </c>
       <c r="E22" t="n">
-        <v>501.6849958039788</v>
+        <v>501.68499580398</v>
       </c>
       <c r="F22" t="n">
-        <v>386.7245456315371</v>
+        <v>386.7245456315382</v>
       </c>
       <c r="G22" t="n">
-        <v>251.2943450749428</v>
+        <v>251.2943450749441</v>
       </c>
       <c r="H22" t="n">
-        <v>140.0574709897932</v>
+        <v>140.0574709897928</v>
       </c>
       <c r="I22" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="J22" t="n">
-        <v>185.1742787042783</v>
+        <v>185.1742787042785</v>
       </c>
       <c r="K22" t="n">
-        <v>459.5287020443611</v>
+        <v>459.5287020443613</v>
       </c>
       <c r="L22" t="n">
         <v>857.3827676902786</v>
@@ -5923,22 +5923,22 @@
         <v>1709.719201354973</v>
       </c>
       <c r="O22" t="n">
-        <v>2087.878830313935</v>
+        <v>2087.878830313936</v>
       </c>
       <c r="P22" t="n">
-        <v>2392.455631028688</v>
+        <v>2392.455631028689</v>
       </c>
       <c r="Q22" t="n">
-        <v>2529.521427597204</v>
+        <v>2529.521427597205</v>
       </c>
       <c r="R22" t="n">
-        <v>2487.049233352542</v>
+        <v>2487.049233352543</v>
       </c>
       <c r="S22" t="n">
-        <v>2333.272818966195</v>
+        <v>2333.272818966196</v>
       </c>
       <c r="T22" t="n">
-        <v>2144.901839127668</v>
+        <v>2144.901839127669</v>
       </c>
       <c r="U22" t="n">
         <v>1887.747186237501</v>
@@ -5953,7 +5953,7 @@
         <v>1211.444469073042</v>
       </c>
       <c r="Y22" t="n">
-        <v>1022.58138725498</v>
+        <v>1022.581387254981</v>
       </c>
     </row>
     <row r="23">
@@ -5963,43 +5963,43 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2121.462641112808</v>
+        <v>2121.462641112807</v>
       </c>
       <c r="C23" t="n">
-        <v>1784.429621497865</v>
+        <v>1784.429621497864</v>
       </c>
       <c r="D23" t="n">
-        <v>1458.093420216583</v>
+        <v>1458.093420216582</v>
       </c>
       <c r="E23" t="n">
-        <v>1104.234664943808</v>
+        <v>1104.234664943807</v>
       </c>
       <c r="F23" t="n">
-        <v>725.1782574796689</v>
+        <v>725.178257479668</v>
       </c>
       <c r="G23" t="n">
-        <v>342.8002736162839</v>
+        <v>342.8002736162838</v>
       </c>
       <c r="H23" t="n">
-        <v>84.98040897511626</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="I23" t="n">
-        <v>84.98040897511626</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="J23" t="n">
-        <v>337.4933016076837</v>
+        <v>337.4933016076843</v>
       </c>
       <c r="K23" t="n">
-        <v>766.683188695145</v>
+        <v>766.6831886951456</v>
       </c>
       <c r="L23" t="n">
-        <v>1336.032957050963</v>
+        <v>1336.032957050964</v>
       </c>
       <c r="M23" t="n">
-        <v>2001.213713746739</v>
+        <v>2001.21371374674</v>
       </c>
       <c r="N23" t="n">
-        <v>2681.771598889755</v>
+        <v>2681.771598889756</v>
       </c>
       <c r="O23" t="n">
         <v>3311.067850233288</v>
@@ -6008,31 +6008,31 @@
         <v>3813.656640612704</v>
       </c>
       <c r="Q23" t="n">
-        <v>4142.907144767228</v>
+        <v>4142.907144767229</v>
       </c>
       <c r="R23" t="n">
-        <v>4249.020448755813</v>
+        <v>4249.020448755812</v>
       </c>
       <c r="S23" t="n">
-        <v>4188.091007924549</v>
+        <v>4188.091007924548</v>
       </c>
       <c r="T23" t="n">
-        <v>4017.391409283567</v>
+        <v>4017.391409283566</v>
       </c>
       <c r="U23" t="n">
-        <v>3795.851627400164</v>
+        <v>3795.851627400163</v>
       </c>
       <c r="V23" t="n">
         <v>3496.718237382061</v>
       </c>
       <c r="W23" t="n">
-        <v>3175.879079437416</v>
+        <v>3175.879079437415</v>
       </c>
       <c r="X23" t="n">
-        <v>2834.342818501805</v>
+        <v>2834.342818501804</v>
       </c>
       <c r="Y23" t="n">
-        <v>2476.132983851462</v>
+        <v>2476.13298385146</v>
       </c>
     </row>
     <row r="24">
@@ -6060,10 +6060,10 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H24" t="n">
-        <v>89.89576342177182</v>
+        <v>89.89576342177179</v>
       </c>
       <c r="I24" t="n">
-        <v>84.98040897511626</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="J24" t="n">
         <v>216.557510983586</v>
@@ -6078,16 +6078,16 @@
         <v>1522.315654538067</v>
       </c>
       <c r="N24" t="n">
-        <v>1934.929714729833</v>
+        <v>2100.171002464469</v>
       </c>
       <c r="O24" t="n">
-        <v>1934.929714729833</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="P24" t="n">
-        <v>2322.031270281988</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q24" t="n">
-        <v>2530.879212293268</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="R24" t="n">
         <v>2555.644190323788</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>872.8624197502088</v>
+        <v>872.8624197502106</v>
       </c>
       <c r="C25" t="n">
-        <v>735.8557341477705</v>
+        <v>735.8557341477723</v>
       </c>
       <c r="D25" t="n">
-        <v>617.6685920609051</v>
+        <v>617.6685920609052</v>
       </c>
       <c r="E25" t="n">
-        <v>501.6849958039805</v>
+        <v>501.6849958039808</v>
       </c>
       <c r="F25" t="n">
-        <v>386.7245456315387</v>
+        <v>386.7245456315391</v>
       </c>
       <c r="G25" t="n">
-        <v>251.2943450749445</v>
+        <v>251.2943450749449</v>
       </c>
       <c r="H25" t="n">
-        <v>140.0574709897932</v>
+        <v>140.0574709897937</v>
       </c>
       <c r="I25" t="n">
-        <v>84.98040897511626</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="J25" t="n">
         <v>185.1742787042785</v>
       </c>
       <c r="K25" t="n">
-        <v>459.5287020443611</v>
+        <v>459.5287020443612</v>
       </c>
       <c r="L25" t="n">
-        <v>857.3827676902787</v>
+        <v>857.382767690279</v>
       </c>
       <c r="M25" t="n">
-        <v>1285.552079040893</v>
+        <v>1285.552079040894</v>
       </c>
       <c r="N25" t="n">
-        <v>1709.719201354973</v>
+        <v>1709.719201354974</v>
       </c>
       <c r="O25" t="n">
-        <v>2087.878830313935</v>
+        <v>2087.878830313936</v>
       </c>
       <c r="P25" t="n">
-        <v>2392.455631028688</v>
+        <v>2392.455631028689</v>
       </c>
       <c r="Q25" t="n">
-        <v>2529.521427597205</v>
+        <v>2529.521427597206</v>
       </c>
       <c r="R25" t="n">
-        <v>2487.049233352543</v>
+        <v>2487.049233352544</v>
       </c>
       <c r="S25" t="n">
-        <v>2333.272818966196</v>
+        <v>2333.272818966197</v>
       </c>
       <c r="T25" t="n">
-        <v>2144.901839127668</v>
+        <v>2144.90183912767</v>
       </c>
       <c r="U25" t="n">
-        <v>1887.747186237501</v>
+        <v>1887.747186237502</v>
       </c>
       <c r="V25" t="n">
-        <v>1664.992195357083</v>
+        <v>1664.992195357084</v>
       </c>
       <c r="W25" t="n">
-        <v>1407.504522645591</v>
+        <v>1407.504522645592</v>
       </c>
       <c r="X25" t="n">
-        <v>1211.444469073042</v>
+        <v>1211.444469073043</v>
       </c>
       <c r="Y25" t="n">
-        <v>1022.58138725498</v>
+        <v>1022.581387254982</v>
       </c>
     </row>
     <row r="26">
@@ -6212,10 +6212,10 @@
         <v>1104.234664943807</v>
       </c>
       <c r="F26" t="n">
-        <v>725.1782574796675</v>
+        <v>725.178257479668</v>
       </c>
       <c r="G26" t="n">
-        <v>342.8002736162839</v>
+        <v>342.8002736162838</v>
       </c>
       <c r="H26" t="n">
         <v>84.98040897511625</v>
@@ -6266,7 +6266,7 @@
         <v>3175.879079437415</v>
       </c>
       <c r="X26" t="n">
-        <v>2834.342818501803</v>
+        <v>2834.342818501804</v>
       </c>
       <c r="Y26" t="n">
         <v>2476.13298385146</v>
@@ -6303,28 +6303,28 @@
         <v>84.98040897511625</v>
       </c>
       <c r="J27" t="n">
-        <v>84.98040897511625</v>
+        <v>216.557510983586</v>
       </c>
       <c r="K27" t="n">
-        <v>84.98040897511625</v>
+        <v>519.5985603334505</v>
       </c>
       <c r="L27" t="n">
-        <v>301.7509472448909</v>
+        <v>973.3971899277778</v>
       </c>
       <c r="M27" t="n">
-        <v>850.66941185518</v>
+        <v>1522.315654538067</v>
       </c>
       <c r="N27" t="n">
-        <v>1428.524759781582</v>
+        <v>2049.239235375538</v>
       </c>
       <c r="O27" t="n">
-        <v>1934.929714729833</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="P27" t="n">
-        <v>2322.031270281988</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q27" t="n">
-        <v>2530.879212293268</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="R27" t="n">
         <v>2555.644190323788</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>872.8624197502088</v>
+        <v>872.8624197502099</v>
       </c>
       <c r="C28" t="n">
-        <v>735.8557341477705</v>
+        <v>735.8557341477717</v>
       </c>
       <c r="D28" t="n">
-        <v>617.6685920609033</v>
+        <v>617.6685920609046</v>
       </c>
       <c r="E28" t="n">
-        <v>501.6849958039804</v>
+        <v>501.6849958039802</v>
       </c>
       <c r="F28" t="n">
-        <v>386.7245456315387</v>
+        <v>386.7245456315385</v>
       </c>
       <c r="G28" t="n">
-        <v>251.2943450749444</v>
+        <v>251.2943450749443</v>
       </c>
       <c r="H28" t="n">
         <v>140.0574709897931</v>
@@ -6382,19 +6382,19 @@
         <v>84.98040897511625</v>
       </c>
       <c r="J28" t="n">
-        <v>185.1742787042783</v>
+        <v>185.1742787042785</v>
       </c>
       <c r="K28" t="n">
-        <v>459.5287020443607</v>
+        <v>459.5287020443612</v>
       </c>
       <c r="L28" t="n">
-        <v>857.3827676902781</v>
+        <v>857.3827676902788</v>
       </c>
       <c r="M28" t="n">
         <v>1285.552079040893</v>
       </c>
       <c r="N28" t="n">
-        <v>1709.719201354972</v>
+        <v>1709.719201354973</v>
       </c>
       <c r="O28" t="n">
         <v>2087.878830313935</v>
@@ -6427,7 +6427,7 @@
         <v>1211.444469073042</v>
       </c>
       <c r="Y28" t="n">
-        <v>1022.58138725498</v>
+        <v>1022.581387254981</v>
       </c>
     </row>
     <row r="29">
@@ -6437,22 +6437,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2121.462641112807</v>
+        <v>2121.462641112808</v>
       </c>
       <c r="C29" t="n">
-        <v>1784.429621497864</v>
+        <v>1784.429621497865</v>
       </c>
       <c r="D29" t="n">
-        <v>1458.093420216582</v>
+        <v>1458.093420216583</v>
       </c>
       <c r="E29" t="n">
         <v>1104.234664943807</v>
       </c>
       <c r="F29" t="n">
-        <v>725.1782574796675</v>
+        <v>725.1782574796684</v>
       </c>
       <c r="G29" t="n">
-        <v>342.8002736162839</v>
+        <v>342.8002736162838</v>
       </c>
       <c r="H29" t="n">
         <v>84.98040897511625</v>
@@ -6461,22 +6461,22 @@
         <v>84.98040897511625</v>
       </c>
       <c r="J29" t="n">
-        <v>337.4933016076839</v>
+        <v>337.4933016076843</v>
       </c>
       <c r="K29" t="n">
-        <v>766.6831886951445</v>
+        <v>766.6831886951456</v>
       </c>
       <c r="L29" t="n">
-        <v>1336.032957050963</v>
+        <v>1336.032957050964</v>
       </c>
       <c r="M29" t="n">
-        <v>2001.213713746739</v>
+        <v>2001.21371374674</v>
       </c>
       <c r="N29" t="n">
-        <v>2681.771598889755</v>
+        <v>2681.771598889756</v>
       </c>
       <c r="O29" t="n">
-        <v>3311.067850233287</v>
+        <v>3311.067850233288</v>
       </c>
       <c r="P29" t="n">
         <v>3813.656640612704</v>
@@ -6503,10 +6503,10 @@
         <v>3175.879079437415</v>
       </c>
       <c r="X29" t="n">
-        <v>2834.342818501803</v>
+        <v>2834.342818501804</v>
       </c>
       <c r="Y29" t="n">
-        <v>2476.13298385146</v>
+        <v>2476.132983851461</v>
       </c>
     </row>
     <row r="30">
@@ -6552,7 +6552,7 @@
         <v>1522.315654538067</v>
       </c>
       <c r="N30" t="n">
-        <v>2049.239235375538</v>
+        <v>2100.171002464469</v>
       </c>
       <c r="O30" t="n">
         <v>2555.644190323788</v>
@@ -6595,37 +6595,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>872.8624197502104</v>
+        <v>872.8624197502111</v>
       </c>
       <c r="C31" t="n">
-        <v>735.8557341477721</v>
+        <v>735.8557341477728</v>
       </c>
       <c r="D31" t="n">
-        <v>617.6685920609049</v>
+        <v>617.6685920609046</v>
       </c>
       <c r="E31" t="n">
-        <v>501.6849958039804</v>
+        <v>501.6849958039802</v>
       </c>
       <c r="F31" t="n">
-        <v>386.7245456315386</v>
+        <v>386.7245456315385</v>
       </c>
       <c r="G31" t="n">
         <v>251.2943450749443</v>
       </c>
       <c r="H31" t="n">
-        <v>140.057470989793</v>
+        <v>140.0574709897932</v>
       </c>
       <c r="I31" t="n">
         <v>84.98040897511625</v>
       </c>
       <c r="J31" t="n">
-        <v>185.1742787042784</v>
+        <v>185.1742787042785</v>
       </c>
       <c r="K31" t="n">
-        <v>459.5287020443611</v>
+        <v>459.5287020443612</v>
       </c>
       <c r="L31" t="n">
-        <v>857.3827676902786</v>
+        <v>857.3827676902787</v>
       </c>
       <c r="M31" t="n">
         <v>1285.552079040893</v>
@@ -6649,19 +6649,19 @@
         <v>2333.272818966196</v>
       </c>
       <c r="T31" t="n">
-        <v>2144.901839127668</v>
+        <v>2144.901839127669</v>
       </c>
       <c r="U31" t="n">
-        <v>1887.747186237501</v>
+        <v>1887.747186237502</v>
       </c>
       <c r="V31" t="n">
-        <v>1664.992195357083</v>
+        <v>1664.992195357084</v>
       </c>
       <c r="W31" t="n">
-        <v>1407.50452264559</v>
+        <v>1407.504522645592</v>
       </c>
       <c r="X31" t="n">
-        <v>1211.444469073043</v>
+        <v>1211.444469073044</v>
       </c>
       <c r="Y31" t="n">
         <v>1022.581387254982</v>
@@ -6683,13 +6683,13 @@
         <v>1458.093420216582</v>
       </c>
       <c r="E32" t="n">
-        <v>1104.234664943807</v>
+        <v>1104.234664943806</v>
       </c>
       <c r="F32" t="n">
-        <v>725.178257479668</v>
+        <v>725.1782574796671</v>
       </c>
       <c r="G32" t="n">
-        <v>342.8002736162838</v>
+        <v>342.8002736162839</v>
       </c>
       <c r="H32" t="n">
         <v>84.98040897511625</v>
@@ -6704,19 +6704,19 @@
         <v>766.6831886951454</v>
       </c>
       <c r="L32" t="n">
-        <v>1336.032957050963</v>
+        <v>1336.032957050964</v>
       </c>
       <c r="M32" t="n">
-        <v>2001.213713746739</v>
+        <v>2001.21371374674</v>
       </c>
       <c r="N32" t="n">
-        <v>2681.771598889755</v>
+        <v>2681.771598889756</v>
       </c>
       <c r="O32" t="n">
         <v>3311.067850233288</v>
       </c>
       <c r="P32" t="n">
-        <v>3813.656640612704</v>
+        <v>3813.656640612705</v>
       </c>
       <c r="Q32" t="n">
         <v>4142.907144767229</v>
@@ -6728,22 +6728,22 @@
         <v>4188.091007924548</v>
       </c>
       <c r="T32" t="n">
-        <v>4017.391409283566</v>
+        <v>4017.391409283565</v>
       </c>
       <c r="U32" t="n">
-        <v>3795.851627400163</v>
+        <v>3795.851627400162</v>
       </c>
       <c r="V32" t="n">
-        <v>3496.718237382061</v>
+        <v>3496.71823738206</v>
       </c>
       <c r="W32" t="n">
-        <v>3175.879079437415</v>
+        <v>3175.879079437414</v>
       </c>
       <c r="X32" t="n">
-        <v>2834.342818501804</v>
+        <v>2834.342818501802</v>
       </c>
       <c r="Y32" t="n">
-        <v>2476.132983851461</v>
+        <v>2476.132983851459</v>
       </c>
     </row>
     <row r="33">
@@ -6777,28 +6777,28 @@
         <v>84.98040897511625</v>
       </c>
       <c r="J33" t="n">
-        <v>84.98040897511625</v>
+        <v>216.557510983586</v>
       </c>
       <c r="K33" t="n">
-        <v>84.98040897511625</v>
+        <v>519.5985603334505</v>
       </c>
       <c r="L33" t="n">
-        <v>301.7509472448909</v>
+        <v>973.3971899277778</v>
       </c>
       <c r="M33" t="n">
-        <v>850.66941185518</v>
+        <v>1522.315654538067</v>
       </c>
       <c r="N33" t="n">
-        <v>1428.524759781582</v>
+        <v>2100.171002464469</v>
       </c>
       <c r="O33" t="n">
-        <v>1934.929714729833</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="P33" t="n">
-        <v>2322.031270281988</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q33" t="n">
-        <v>2530.879212293268</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="R33" t="n">
         <v>2555.644190323788</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>872.8624197502099</v>
+        <v>872.8624197502098</v>
       </c>
       <c r="C34" t="n">
-        <v>735.8557341477716</v>
+        <v>735.8557341477715</v>
       </c>
       <c r="D34" t="n">
-        <v>617.6685920609045</v>
+        <v>617.6685920609044</v>
       </c>
       <c r="E34" t="n">
-        <v>501.6849958039801</v>
+        <v>501.6849958039799</v>
       </c>
       <c r="F34" t="n">
-        <v>386.7245456315384</v>
+        <v>386.7245456315381</v>
       </c>
       <c r="G34" t="n">
-        <v>251.2943450749443</v>
+        <v>251.294345074944</v>
       </c>
       <c r="H34" t="n">
-        <v>140.0574709897931</v>
+        <v>140.0574709897927</v>
       </c>
       <c r="I34" t="n">
         <v>84.98040897511625</v>
@@ -6859,13 +6859,13 @@
         <v>185.1742787042785</v>
       </c>
       <c r="K34" t="n">
-        <v>459.5287020443612</v>
+        <v>459.5287020443616</v>
       </c>
       <c r="L34" t="n">
-        <v>857.3827676902788</v>
+        <v>857.382767690279</v>
       </c>
       <c r="M34" t="n">
-        <v>1285.552079040893</v>
+        <v>1285.552079040894</v>
       </c>
       <c r="N34" t="n">
         <v>1709.719201354973</v>
@@ -6886,16 +6886,16 @@
         <v>2333.272818966196</v>
       </c>
       <c r="T34" t="n">
-        <v>2144.901839127669</v>
+        <v>2144.901839127668</v>
       </c>
       <c r="U34" t="n">
-        <v>1887.747186237502</v>
+        <v>1887.747186237501</v>
       </c>
       <c r="V34" t="n">
-        <v>1664.992195357084</v>
+        <v>1664.992195357083</v>
       </c>
       <c r="W34" t="n">
-        <v>1407.504522645592</v>
+        <v>1407.504522645591</v>
       </c>
       <c r="X34" t="n">
         <v>1211.444469073042</v>
@@ -6920,13 +6920,13 @@
         <v>1458.093420216582</v>
       </c>
       <c r="E35" t="n">
-        <v>1104.234664943807</v>
+        <v>1104.234664943806</v>
       </c>
       <c r="F35" t="n">
-        <v>725.1782574796676</v>
+        <v>725.1782574796671</v>
       </c>
       <c r="G35" t="n">
-        <v>342.8002736162839</v>
+        <v>342.800273616284</v>
       </c>
       <c r="H35" t="n">
         <v>84.98040897511625</v>
@@ -6935,10 +6935,10 @@
         <v>84.98040897511625</v>
       </c>
       <c r="J35" t="n">
-        <v>337.4933016076839</v>
+        <v>337.4933016076843</v>
       </c>
       <c r="K35" t="n">
-        <v>766.6831886951454</v>
+        <v>766.6831886951459</v>
       </c>
       <c r="L35" t="n">
         <v>1336.032957050964</v>
@@ -6965,7 +6965,7 @@
         <v>4188.091007924548</v>
       </c>
       <c r="T35" t="n">
-        <v>4017.391409283566</v>
+        <v>4017.391409283565</v>
       </c>
       <c r="U35" t="n">
         <v>3795.851627400162</v>
@@ -6977,7 +6977,7 @@
         <v>3175.879079437414</v>
       </c>
       <c r="X35" t="n">
-        <v>2834.342818501803</v>
+        <v>2834.342818501804</v>
       </c>
       <c r="Y35" t="n">
         <v>2476.13298385146</v>
@@ -7026,7 +7026,7 @@
         <v>1522.315654538067</v>
       </c>
       <c r="N36" t="n">
-        <v>2049.239235375538</v>
+        <v>2100.171002464469</v>
       </c>
       <c r="O36" t="n">
         <v>2555.644190323788</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>872.8624197502101</v>
+        <v>872.8624197502079</v>
       </c>
       <c r="C37" t="n">
-        <v>735.8557341477717</v>
+        <v>735.8557341477695</v>
       </c>
       <c r="D37" t="n">
-        <v>617.6685920609046</v>
+        <v>617.6685920609023</v>
       </c>
       <c r="E37" t="n">
-        <v>501.6849958039802</v>
+        <v>501.6849958039808</v>
       </c>
       <c r="F37" t="n">
-        <v>386.7245456315385</v>
+        <v>386.7245456315389</v>
       </c>
       <c r="G37" t="n">
-        <v>251.2943450749443</v>
+        <v>251.2943450749447</v>
       </c>
       <c r="H37" t="n">
-        <v>140.0574709897932</v>
+        <v>140.0574709897933</v>
       </c>
       <c r="I37" t="n">
         <v>84.98040897511625</v>
       </c>
       <c r="J37" t="n">
-        <v>185.1742787042785</v>
+        <v>185.1742787042783</v>
       </c>
       <c r="K37" t="n">
-        <v>459.5287020443612</v>
+        <v>459.528702044361</v>
       </c>
       <c r="L37" t="n">
-        <v>857.3827676902787</v>
+        <v>857.3827676902783</v>
       </c>
       <c r="M37" t="n">
         <v>1285.552079040893</v>
@@ -7108,37 +7108,37 @@
         <v>1709.719201354973</v>
       </c>
       <c r="O37" t="n">
-        <v>2087.878830313936</v>
+        <v>2087.878830313935</v>
       </c>
       <c r="P37" t="n">
-        <v>2392.455631028689</v>
+        <v>2392.455631028688</v>
       </c>
       <c r="Q37" t="n">
-        <v>2529.521427597205</v>
+        <v>2529.521427597204</v>
       </c>
       <c r="R37" t="n">
-        <v>2487.049233352543</v>
+        <v>2487.049233352542</v>
       </c>
       <c r="S37" t="n">
-        <v>2333.272818966197</v>
+        <v>2333.272818966195</v>
       </c>
       <c r="T37" t="n">
-        <v>2144.901839127669</v>
+        <v>2144.901839127667</v>
       </c>
       <c r="U37" t="n">
-        <v>1887.747186237502</v>
+        <v>1887.7471862375</v>
       </c>
       <c r="V37" t="n">
-        <v>1664.992195357084</v>
+        <v>1664.992195357082</v>
       </c>
       <c r="W37" t="n">
-        <v>1407.504522645592</v>
+        <v>1407.50452264559</v>
       </c>
       <c r="X37" t="n">
-        <v>1211.444469073043</v>
+        <v>1211.444469073041</v>
       </c>
       <c r="Y37" t="n">
-        <v>1022.581387254981</v>
+        <v>1022.581387254979</v>
       </c>
     </row>
     <row r="38">
@@ -7154,70 +7154,70 @@
         <v>1784.429621497864</v>
       </c>
       <c r="D38" t="n">
-        <v>1458.093420216583</v>
+        <v>1458.093420216582</v>
       </c>
       <c r="E38" t="n">
-        <v>1104.234664943807</v>
+        <v>1104.234664943806</v>
       </c>
       <c r="F38" t="n">
-        <v>725.1782574796682</v>
+        <v>725.1782574796675</v>
       </c>
       <c r="G38" t="n">
-        <v>342.8002736162846</v>
+        <v>342.8002736162839</v>
       </c>
       <c r="H38" t="n">
-        <v>84.98040897511697</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="I38" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J38" t="n">
-        <v>337.4933016076839</v>
+        <v>337.4933016076836</v>
       </c>
       <c r="K38" t="n">
-        <v>766.6831886951445</v>
+        <v>766.683188695145</v>
       </c>
       <c r="L38" t="n">
-        <v>1336.032957050963</v>
+        <v>1336.032957050962</v>
       </c>
       <c r="M38" t="n">
-        <v>2001.213713746739</v>
+        <v>2001.213713746738</v>
       </c>
       <c r="N38" t="n">
-        <v>2681.771598889755</v>
+        <v>2681.771598889754</v>
       </c>
       <c r="O38" t="n">
         <v>3311.067850233287</v>
       </c>
       <c r="P38" t="n">
-        <v>3813.656640612704</v>
+        <v>3813.656640612703</v>
       </c>
       <c r="Q38" t="n">
-        <v>4142.907144767229</v>
+        <v>4142.907144767228</v>
       </c>
       <c r="R38" t="n">
-        <v>4249.020448755812</v>
+        <v>4249.020448755811</v>
       </c>
       <c r="S38" t="n">
-        <v>4188.091007924548</v>
+        <v>4188.091007924547</v>
       </c>
       <c r="T38" t="n">
-        <v>4017.391409283566</v>
+        <v>4017.391409283565</v>
       </c>
       <c r="U38" t="n">
-        <v>3795.851627400163</v>
+        <v>3795.851627400162</v>
       </c>
       <c r="V38" t="n">
-        <v>3496.718237382061</v>
+        <v>3496.71823738206</v>
       </c>
       <c r="W38" t="n">
-        <v>3175.879079437415</v>
+        <v>3175.879079437414</v>
       </c>
       <c r="X38" t="n">
-        <v>2834.342818501804</v>
+        <v>2834.342818501803</v>
       </c>
       <c r="Y38" t="n">
-        <v>2476.132983851461</v>
+        <v>2476.13298385146</v>
       </c>
     </row>
     <row r="39">
@@ -7245,13 +7245,13 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H39" t="n">
-        <v>89.89576342177179</v>
+        <v>89.89576342177176</v>
       </c>
       <c r="I39" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J39" t="n">
-        <v>216.557510983586</v>
+        <v>216.5575109835859</v>
       </c>
       <c r="K39" t="n">
         <v>519.5985603334505</v>
@@ -7263,13 +7263,13 @@
         <v>1522.315654538067</v>
       </c>
       <c r="N39" t="n">
-        <v>2100.171002464469</v>
+        <v>2049.239235375538</v>
       </c>
       <c r="O39" t="n">
-        <v>2100.171002464469</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="P39" t="n">
-        <v>2487.272558016625</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q39" t="n">
         <v>2555.644190323788</v>
@@ -7306,43 +7306,43 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>872.8624197502104</v>
+        <v>872.8624197502091</v>
       </c>
       <c r="C40" t="n">
-        <v>735.8557341477721</v>
+        <v>735.8557341477708</v>
       </c>
       <c r="D40" t="n">
-        <v>617.668592060905</v>
+        <v>617.6685920609036</v>
       </c>
       <c r="E40" t="n">
-        <v>501.6849958039805</v>
+        <v>501.6849958039791</v>
       </c>
       <c r="F40" t="n">
-        <v>386.7245456315388</v>
+        <v>386.7245456315387</v>
       </c>
       <c r="G40" t="n">
-        <v>251.2943450749444</v>
+        <v>251.2943450749445</v>
       </c>
       <c r="H40" t="n">
-        <v>140.0574709897931</v>
+        <v>140.0574709897932</v>
       </c>
       <c r="I40" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511623</v>
       </c>
       <c r="J40" t="n">
         <v>185.1742787042784</v>
       </c>
       <c r="K40" t="n">
-        <v>459.5287020443612</v>
+        <v>459.5287020443611</v>
       </c>
       <c r="L40" t="n">
-        <v>857.3827676902788</v>
+        <v>857.3827676902786</v>
       </c>
       <c r="M40" t="n">
-        <v>1285.552079040894</v>
+        <v>1285.552079040893</v>
       </c>
       <c r="N40" t="n">
-        <v>1709.719201354974</v>
+        <v>1709.719201354973</v>
       </c>
       <c r="O40" t="n">
         <v>2087.878830313936</v>
@@ -7363,19 +7363,19 @@
         <v>2144.901839127669</v>
       </c>
       <c r="U40" t="n">
-        <v>1887.747186237502</v>
+        <v>1887.747186237501</v>
       </c>
       <c r="V40" t="n">
-        <v>1664.992195357084</v>
+        <v>1664.992195357083</v>
       </c>
       <c r="W40" t="n">
-        <v>1407.504522645592</v>
+        <v>1407.504522645591</v>
       </c>
       <c r="X40" t="n">
-        <v>1211.444469073043</v>
+        <v>1211.444469073042</v>
       </c>
       <c r="Y40" t="n">
-        <v>1022.581387254981</v>
+        <v>1022.58138725498</v>
       </c>
     </row>
     <row r="41">
@@ -7391,70 +7391,70 @@
         <v>1784.429621497864</v>
       </c>
       <c r="D41" t="n">
-        <v>1458.093420216583</v>
+        <v>1458.093420216582</v>
       </c>
       <c r="E41" t="n">
-        <v>1104.234664943807</v>
+        <v>1104.234664943806</v>
       </c>
       <c r="F41" t="n">
-        <v>725.1782574796681</v>
+        <v>725.1782574796672</v>
       </c>
       <c r="G41" t="n">
-        <v>342.8002736162844</v>
+        <v>342.8002736162835</v>
       </c>
       <c r="H41" t="n">
-        <v>84.98040897511675</v>
+        <v>84.98040897511584</v>
       </c>
       <c r="I41" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J41" t="n">
-        <v>337.4933016076843</v>
+        <v>337.4933016076836</v>
       </c>
       <c r="K41" t="n">
-        <v>766.6831886951454</v>
+        <v>766.683188695145</v>
       </c>
       <c r="L41" t="n">
-        <v>1336.032957050963</v>
+        <v>1336.032957050962</v>
       </c>
       <c r="M41" t="n">
-        <v>2001.213713746739</v>
+        <v>2001.213713746738</v>
       </c>
       <c r="N41" t="n">
-        <v>2681.771598889755</v>
+        <v>2681.771598889754</v>
       </c>
       <c r="O41" t="n">
-        <v>3311.067850233288</v>
+        <v>3311.067850233287</v>
       </c>
       <c r="P41" t="n">
-        <v>3813.656640612704</v>
+        <v>3813.656640612703</v>
       </c>
       <c r="Q41" t="n">
-        <v>4142.907144767229</v>
+        <v>4142.907144767228</v>
       </c>
       <c r="R41" t="n">
-        <v>4249.020448755812</v>
+        <v>4249.020448755811</v>
       </c>
       <c r="S41" t="n">
-        <v>4188.091007924548</v>
+        <v>4188.091007924547</v>
       </c>
       <c r="T41" t="n">
-        <v>4017.391409283566</v>
+        <v>4017.391409283565</v>
       </c>
       <c r="U41" t="n">
-        <v>3795.851627400163</v>
+        <v>3795.851627400162</v>
       </c>
       <c r="V41" t="n">
-        <v>3496.718237382061</v>
+        <v>3496.71823738206</v>
       </c>
       <c r="W41" t="n">
-        <v>3175.879079437415</v>
+        <v>3175.879079437414</v>
       </c>
       <c r="X41" t="n">
-        <v>2834.342818501804</v>
+        <v>2834.342818501803</v>
       </c>
       <c r="Y41" t="n">
-        <v>2476.132983851461</v>
+        <v>2476.13298385146</v>
       </c>
     </row>
     <row r="42">
@@ -7482,19 +7482,19 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H42" t="n">
-        <v>89.89576342177179</v>
+        <v>89.89576342177176</v>
       </c>
       <c r="I42" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J42" t="n">
-        <v>216.557510983586</v>
+        <v>216.5575109835859</v>
       </c>
       <c r="K42" t="n">
         <v>519.5985603334505</v>
       </c>
       <c r="L42" t="n">
-        <v>973.3971899277778</v>
+        <v>922.4654228388466</v>
       </c>
       <c r="M42" t="n">
         <v>1471.383887449136</v>
@@ -7543,19 +7543,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>872.8624197502091</v>
+        <v>872.8624197502094</v>
       </c>
       <c r="C43" t="n">
-        <v>735.8557341477708</v>
+        <v>735.855734147771</v>
       </c>
       <c r="D43" t="n">
-        <v>617.668592060905</v>
+        <v>617.6685920609038</v>
       </c>
       <c r="E43" t="n">
-        <v>501.6849958039804</v>
+        <v>501.6849958039793</v>
       </c>
       <c r="F43" t="n">
-        <v>386.7245456315386</v>
+        <v>386.7245456315387</v>
       </c>
       <c r="G43" t="n">
         <v>251.2943450749444</v>
@@ -7564,13 +7564,13 @@
         <v>140.0574709897932</v>
       </c>
       <c r="I43" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J43" t="n">
         <v>185.1742787042784</v>
       </c>
       <c r="K43" t="n">
-        <v>459.5287020443612</v>
+        <v>459.5287020443611</v>
       </c>
       <c r="L43" t="n">
         <v>857.3827676902786</v>
@@ -7588,13 +7588,13 @@
         <v>2392.455631028688</v>
       </c>
       <c r="Q43" t="n">
-        <v>2529.521427597204</v>
+        <v>2529.521427597205</v>
       </c>
       <c r="R43" t="n">
-        <v>2487.049233352542</v>
+        <v>2487.049233352543</v>
       </c>
       <c r="S43" t="n">
-        <v>2333.272818966195</v>
+        <v>2333.272818966196</v>
       </c>
       <c r="T43" t="n">
         <v>2144.901839127668</v>
@@ -7603,10 +7603,10 @@
         <v>1887.747186237501</v>
       </c>
       <c r="V43" t="n">
-        <v>1664.992195357082</v>
+        <v>1664.992195357083</v>
       </c>
       <c r="W43" t="n">
-        <v>1407.50452264559</v>
+        <v>1407.504522645591</v>
       </c>
       <c r="X43" t="n">
         <v>1211.444469073042</v>
@@ -7631,10 +7631,10 @@
         <v>1458.093420216582</v>
       </c>
       <c r="E44" t="n">
-        <v>1104.234664943807</v>
+        <v>1104.234664943806</v>
       </c>
       <c r="F44" t="n">
-        <v>725.1782574796675</v>
+        <v>725.1782574796673</v>
       </c>
       <c r="G44" t="n">
         <v>342.8002736162839</v>
@@ -7649,19 +7649,19 @@
         <v>337.4933016076839</v>
       </c>
       <c r="K44" t="n">
-        <v>766.683188695145</v>
+        <v>766.6831886951445</v>
       </c>
       <c r="L44" t="n">
-        <v>1336.032957050965</v>
+        <v>1336.032957050963</v>
       </c>
       <c r="M44" t="n">
         <v>2001.213713746739</v>
       </c>
       <c r="N44" t="n">
-        <v>2681.771598889756</v>
+        <v>2681.771598889755</v>
       </c>
       <c r="O44" t="n">
-        <v>3311.067850233288</v>
+        <v>3311.067850233287</v>
       </c>
       <c r="P44" t="n">
         <v>3813.656640612704</v>
@@ -7673,25 +7673,25 @@
         <v>4249.020448755812</v>
       </c>
       <c r="S44" t="n">
-        <v>4188.091007924547</v>
+        <v>4188.091007924548</v>
       </c>
       <c r="T44" t="n">
-        <v>4017.391409283565</v>
+        <v>4017.391409283566</v>
       </c>
       <c r="U44" t="n">
-        <v>3795.851627400163</v>
+        <v>3795.851627400162</v>
       </c>
       <c r="V44" t="n">
-        <v>3496.718237382061</v>
+        <v>3496.71823738206</v>
       </c>
       <c r="W44" t="n">
-        <v>3175.879079437415</v>
+        <v>3175.879079437414</v>
       </c>
       <c r="X44" t="n">
-        <v>2834.342818501804</v>
+        <v>2834.342818501803</v>
       </c>
       <c r="Y44" t="n">
-        <v>2476.132983851461</v>
+        <v>2476.13298385146</v>
       </c>
     </row>
     <row r="45">
@@ -7728,13 +7728,13 @@
         <v>216.557510983586</v>
       </c>
       <c r="K45" t="n">
-        <v>519.5985603334505</v>
+        <v>468.6667932445192</v>
       </c>
       <c r="L45" t="n">
-        <v>973.3971899277778</v>
+        <v>922.4654228388466</v>
       </c>
       <c r="M45" t="n">
-        <v>1522.315654538067</v>
+        <v>1471.383887449136</v>
       </c>
       <c r="N45" t="n">
         <v>2049.239235375538</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>872.8624197502097</v>
+        <v>872.8624197502094</v>
       </c>
       <c r="C46" t="n">
-        <v>735.8557341477714</v>
+        <v>735.855734147771</v>
       </c>
       <c r="D46" t="n">
-        <v>617.668592060905</v>
+        <v>617.6685920609038</v>
       </c>
       <c r="E46" t="n">
-        <v>501.6849958039805</v>
+        <v>501.6849958039793</v>
       </c>
       <c r="F46" t="n">
         <v>386.7245456315387</v>
       </c>
       <c r="G46" t="n">
-        <v>251.2943450749445</v>
+        <v>251.2943450749444</v>
       </c>
       <c r="H46" t="n">
         <v>140.0574709897932</v>
@@ -7804,13 +7804,13 @@
         <v>84.98040897511625</v>
       </c>
       <c r="J46" t="n">
-        <v>185.1742787042785</v>
+        <v>185.1742787042784</v>
       </c>
       <c r="K46" t="n">
-        <v>459.5287020443609</v>
+        <v>459.5287020443611</v>
       </c>
       <c r="L46" t="n">
-        <v>857.3827676902783</v>
+        <v>857.3827676902785</v>
       </c>
       <c r="M46" t="n">
         <v>1285.552079040893</v>
@@ -7825,13 +7825,13 @@
         <v>2392.455631028688</v>
       </c>
       <c r="Q46" t="n">
-        <v>2529.521427597204</v>
+        <v>2529.521427597205</v>
       </c>
       <c r="R46" t="n">
-        <v>2487.049233352543</v>
+        <v>2487.049233352542</v>
       </c>
       <c r="S46" t="n">
-        <v>2333.272818966196</v>
+        <v>2333.272818966195</v>
       </c>
       <c r="T46" t="n">
         <v>2144.901839127668</v>
@@ -7849,7 +7849,7 @@
         <v>1211.444469073042</v>
       </c>
       <c r="Y46" t="n">
-        <v>1022.581387254981</v>
+        <v>1022.58138725498</v>
       </c>
     </row>
   </sheetData>
@@ -7979,7 +7979,7 @@
         <v>81.3904371773047</v>
       </c>
       <c r="K2" t="n">
-        <v>70.73213850318879</v>
+        <v>77.33036421493209</v>
       </c>
       <c r="L2" t="n">
         <v>50.47496544952261</v>
@@ -7988,13 +7988,13 @@
         <v>24.17379379562163</v>
       </c>
       <c r="N2" t="n">
-        <v>26.78058428999793</v>
+        <v>19.9045385482865</v>
       </c>
       <c r="O2" t="n">
         <v>39.14129792260681</v>
       </c>
       <c r="P2" t="n">
-        <v>68.98536778227221</v>
+        <v>69.26318781224035</v>
       </c>
       <c r="Q2" t="n">
         <v>102.3855312570331</v>
@@ -8143,16 +8143,16 @@
         <v>63.45653465754863</v>
       </c>
       <c r="M4" t="n">
-        <v>56.36499742800063</v>
+        <v>62.96322313974392</v>
       </c>
       <c r="N4" t="n">
-        <v>53.68609462837691</v>
+        <v>53.96391465834506</v>
       </c>
       <c r="O4" t="n">
         <v>70.88758571261646</v>
       </c>
       <c r="P4" t="n">
-        <v>80.90349281951899</v>
+        <v>74.02744707780755</v>
       </c>
       <c r="Q4" t="n">
         <v>65.34295837775146</v>
@@ -8213,28 +8213,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>52.41622624273649</v>
+        <v>52.41622624273685</v>
       </c>
       <c r="K5" t="n">
-        <v>82.78533078308851</v>
+        <v>82.78533078308826</v>
       </c>
       <c r="L5" t="n">
-        <v>52.08064589108842</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>6.682715781502743</v>
+        <v>14.46925402099592</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>13.2962541322137</v>
+        <v>57.59036178381019</v>
       </c>
       <c r="Q5" t="n">
-        <v>58.64427311383878</v>
+        <v>58.64427311383929</v>
       </c>
       <c r="R5" t="n">
         <v>65.71641987298243</v>
@@ -8292,10 +8292,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.22667148226016</v>
+        <v>50.22667148226039</v>
       </c>
       <c r="K6" t="n">
-        <v>6.901114150799515</v>
+        <v>6.901114150799884</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8313,7 +8313,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>36.47287293533364</v>
+        <v>36.47287293533395</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8374,22 +8374,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K7" t="n">
-        <v>50.03057187942008</v>
+        <v>105.5085955608784</v>
       </c>
       <c r="L7" t="n">
-        <v>89.29205429721202</v>
+        <v>89.29205429721149</v>
       </c>
       <c r="M7" t="n">
-        <v>85.59744661465649</v>
+        <v>87.83898292501794</v>
       </c>
       <c r="N7" t="n">
-        <v>79.13261679001404</v>
+        <v>23.6545931085555</v>
       </c>
       <c r="O7" t="n">
-        <v>97.84514065800734</v>
+        <v>95.60360434764486</v>
       </c>
       <c r="P7" t="n">
-        <v>55.50690401651869</v>
+        <v>55.50690401651893</v>
       </c>
       <c r="Q7" t="n">
         <v>65.34295837775146</v>
@@ -8611,22 +8611,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K10" t="n">
-        <v>106.7437663446525</v>
+        <v>42.56275186471065</v>
       </c>
       <c r="L10" t="n">
         <v>162.4747015415544</v>
       </c>
       <c r="M10" t="n">
-        <v>154.1946371899308</v>
+        <v>171.4142040457083</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>163.8604018711116</v>
       </c>
       <c r="O10" t="n">
         <v>163.0416663658825</v>
       </c>
       <c r="P10" t="n">
-        <v>135.0065633140411</v>
+        <v>18.10760906709386</v>
       </c>
       <c r="Q10" t="n">
         <v>65.34295837775146</v>
@@ -9635,7 +9635,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>6.536993168992922e-13</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -9659,7 +9659,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>1.691091711109038e-12</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -10109,7 +10109,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>6.536993168992922e-13</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -23255,7 +23255,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23267,16 +23267,16 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>159.6364462020386</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23309,22 +23309,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396201</v>
+        <v>161.2723701802158</v>
       </c>
       <c r="U11" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -23413,10 +23413,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -23428,13 +23428,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>91.26811680410451</v>
       </c>
       <c r="H13" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23473,10 +23473,10 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>282.5616951706797</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23492,7 +23492,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23501,7 +23501,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>354.6550856978736</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23543,16 +23543,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>101.5774980376931</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>172.7896868288977</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9684546314181</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23561,7 +23561,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -23653,7 +23653,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>83.2262190773083</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23665,13 +23665,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.876002342373</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>143.4231041280592</v>
       </c>
       <c r="I16" t="n">
-        <v>91.84734793442574</v>
+        <v>91.84734793442578</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,16 +23698,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>82.19633390844228</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>187.1583167657329</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>218.9088694504607</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>94.94381163288543</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23729,7 +23729,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>-1.922018100231071e-12</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -23896,7 +23896,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>1.335820343228988e-12</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23908,7 +23908,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>-4.831690603168681e-13</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23972,7 +23972,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>9.566747394273988e-13</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -24023,7 +24023,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>-1.023181539494544e-12</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -24142,7 +24142,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>1.378452907374594e-12</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24367,7 +24367,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>1.800799509510398e-12</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -24382,7 +24382,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>-5.684341886080801e-13</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24607,7 +24607,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>1.676880856393836e-12</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -24664,7 +24664,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>-4.263256414560601e-13</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24841,7 +24841,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>-9.983125437429408e-13</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24901,7 +24901,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>1.350599632132798e-12</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25318,7 +25318,7 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>3.151399141643196e-12</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -25558,7 +25558,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>1.350599632132798e-12</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25789,13 +25789,13 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>1.293187779083382e-12</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>1.688249540165998e-12</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -26026,13 +26026,13 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>7.425171588693047e-13</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>1.094235813070554e-12</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>946891.1816452169</v>
+        <v>946891.1816452174</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>998279.1223270277</v>
+        <v>998279.1223270268</v>
       </c>
     </row>
     <row r="7">
@@ -26314,37 +26314,37 @@
         <v>307674.1756626153</v>
       </c>
       <c r="C2" t="n">
-        <v>307890.6636991061</v>
+        <v>307890.663699106</v>
       </c>
       <c r="D2" t="n">
-        <v>307890.6636991062</v>
+        <v>307890.6636991063</v>
       </c>
       <c r="E2" t="n">
-        <v>255747.8242281904</v>
+        <v>255747.8242281905</v>
       </c>
       <c r="F2" t="n">
-        <v>269762.7171414116</v>
+        <v>269762.7171414115</v>
       </c>
       <c r="G2" t="n">
         <v>307890.6636991061</v>
       </c>
       <c r="H2" t="n">
-        <v>307890.663699106</v>
+        <v>307890.6636991061</v>
       </c>
       <c r="I2" t="n">
         <v>307890.663699106</v>
       </c>
       <c r="J2" t="n">
+        <v>307890.6636991061</v>
+      </c>
+      <c r="K2" t="n">
         <v>307890.663699106</v>
       </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
+        <v>307890.6636991062</v>
+      </c>
+      <c r="M2" t="n">
         <v>307890.6636991061</v>
-      </c>
-      <c r="L2" t="n">
-        <v>307890.663699106</v>
-      </c>
-      <c r="M2" t="n">
-        <v>307890.663699106</v>
       </c>
       <c r="N2" t="n">
         <v>307890.6636991063</v>
@@ -26366,43 +26366,43 @@
         <v>283749.2829753453</v>
       </c>
       <c r="C3" t="n">
-        <v>93028.6525194984</v>
+        <v>93028.65251949709</v>
       </c>
       <c r="D3" t="n">
-        <v>187874.9751499491</v>
+        <v>187874.9751499503</v>
       </c>
       <c r="E3" t="n">
-        <v>627134.6436336676</v>
+        <v>627134.6436336677</v>
       </c>
       <c r="F3" t="n">
-        <v>94834.79787224454</v>
+        <v>94834.79787224351</v>
       </c>
       <c r="G3" t="n">
-        <v>142535.3612994117</v>
+        <v>142535.3612994129</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.209268702950794e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>1799.076112044258</v>
+        <v>1799.076112044317</v>
       </c>
       <c r="K3" t="n">
-        <v>12508.59385839692</v>
+        <v>12508.5938583967</v>
       </c>
       <c r="L3" t="n">
-        <v>58708.21177171812</v>
+        <v>58708.21177171828</v>
       </c>
       <c r="M3" t="n">
         <v>160456.4418678774</v>
       </c>
       <c r="N3" t="n">
-        <v>24934.31472010136</v>
+        <v>24934.31472010109</v>
       </c>
       <c r="O3" t="n">
-        <v>31056.15846522624</v>
+        <v>31056.15846522656</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26418,7 +26418,7 @@
         <v>354768.8844604411</v>
       </c>
       <c r="C4" t="n">
-        <v>329319.695002708</v>
+        <v>329319.6950027084</v>
       </c>
       <c r="D4" t="n">
         <v>273280.8790357535</v>
@@ -26430,34 +26430,34 @@
         <v>9823.084594803269</v>
       </c>
       <c r="G4" t="n">
+        <v>40959.76311601002</v>
+      </c>
+      <c r="H4" t="n">
+        <v>40959.76311601002</v>
+      </c>
+      <c r="I4" t="n">
+        <v>40959.76311601004</v>
+      </c>
+      <c r="J4" t="n">
+        <v>40959.76311601004</v>
+      </c>
+      <c r="K4" t="n">
+        <v>40959.76311601004</v>
+      </c>
+      <c r="L4" t="n">
+        <v>40959.76311600998</v>
+      </c>
+      <c r="M4" t="n">
+        <v>40959.7631160099</v>
+      </c>
+      <c r="N4" t="n">
+        <v>40959.76311600999</v>
+      </c>
+      <c r="O4" t="n">
         <v>40959.76311600997</v>
       </c>
-      <c r="H4" t="n">
+      <c r="P4" t="n">
         <v>40959.76311600997</v>
-      </c>
-      <c r="I4" t="n">
-        <v>40959.76311601002</v>
-      </c>
-      <c r="J4" t="n">
-        <v>40959.76311600999</v>
-      </c>
-      <c r="K4" t="n">
-        <v>40959.76311600997</v>
-      </c>
-      <c r="L4" t="n">
-        <v>40959.76311601004</v>
-      </c>
-      <c r="M4" t="n">
-        <v>40959.76311601001</v>
-      </c>
-      <c r="N4" t="n">
-        <v>40959.76311601004</v>
-      </c>
-      <c r="O4" t="n">
-        <v>40959.76311600998</v>
-      </c>
-      <c r="P4" t="n">
-        <v>40959.76311600998</v>
       </c>
     </row>
     <row r="5">
@@ -26470,22 +26470,22 @@
         <v>40412.84643290664</v>
       </c>
       <c r="C5" t="n">
-        <v>45219.06573575798</v>
+        <v>45219.06573575791</v>
       </c>
       <c r="D5" t="n">
         <v>56985.80041161357</v>
       </c>
       <c r="E5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="F5" t="n">
-        <v>82306.98312134465</v>
+        <v>82306.98312134459</v>
       </c>
       <c r="G5" t="n">
+        <v>95106.43410215531</v>
+      </c>
+      <c r="H5" t="n">
         <v>95106.4341021553</v>
-      </c>
-      <c r="H5" t="n">
-        <v>95106.43410215527</v>
       </c>
       <c r="I5" t="n">
         <v>95106.4341021553</v>
@@ -26500,13 +26500,13 @@
         <v>95106.4341021553</v>
       </c>
       <c r="M5" t="n">
-        <v>95106.4341021553</v>
+        <v>95106.43410215528</v>
       </c>
       <c r="N5" t="n">
-        <v>95106.4341021553</v>
+        <v>95106.43410215527</v>
       </c>
       <c r="O5" t="n">
-        <v>95106.4341021553</v>
+        <v>95106.43410215527</v>
       </c>
       <c r="P5" t="n">
         <v>95106.4341021553</v>
@@ -26519,25 +26519,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-371256.8382060776</v>
+        <v>-371258.2814596543</v>
       </c>
       <c r="C6" t="n">
-        <v>-159676.7495588583</v>
+        <v>-159676.7495588574</v>
       </c>
       <c r="D6" t="n">
-        <v>-210250.9908982101</v>
+        <v>-210250.9908982111</v>
       </c>
       <c r="E6" t="n">
-        <v>-455463.5630689619</v>
+        <v>-455811.1819987681</v>
       </c>
       <c r="F6" t="n">
-        <v>82797.85155301914</v>
+        <v>82543.6652426355</v>
       </c>
       <c r="G6" t="n">
-        <v>29289.10518152916</v>
+        <v>29289.10518152789</v>
       </c>
       <c r="H6" t="n">
-        <v>171824.4664809407</v>
+        <v>171824.466480941</v>
       </c>
       <c r="I6" t="n">
         <v>171824.4664809406</v>
@@ -26552,13 +26552,13 @@
         <v>113116.2547092226</v>
       </c>
       <c r="M6" t="n">
-        <v>11368.02461306336</v>
+        <v>11368.02461306361</v>
       </c>
       <c r="N6" t="n">
-        <v>146890.1517608395</v>
+        <v>146890.15176084</v>
       </c>
       <c r="O6" t="n">
-        <v>140768.3080157147</v>
+        <v>140768.3080157144</v>
       </c>
       <c r="P6" t="n">
         <v>171824.4664809408</v>
@@ -26698,34 +26698,34 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
+        <v>31.61020235221394</v>
+      </c>
+      <c r="H2" t="n">
+        <v>31.61020235221394</v>
+      </c>
+      <c r="I2" t="n">
+        <v>31.61020235221394</v>
+      </c>
+      <c r="J2" t="n">
+        <v>31.61020235221394</v>
+      </c>
+      <c r="K2" t="n">
+        <v>31.61020235221394</v>
+      </c>
+      <c r="L2" t="n">
+        <v>31.61020235221389</v>
+      </c>
+      <c r="M2" t="n">
+        <v>31.6102023522138</v>
+      </c>
+      <c r="N2" t="n">
         <v>31.61020235221388</v>
       </c>
-      <c r="H2" t="n">
+      <c r="O2" t="n">
         <v>31.61020235221388</v>
       </c>
-      <c r="I2" t="n">
+      <c r="P2" t="n">
         <v>31.61020235221388</v>
-      </c>
-      <c r="J2" t="n">
-        <v>31.61020235221388</v>
-      </c>
-      <c r="K2" t="n">
-        <v>31.61020235221388</v>
-      </c>
-      <c r="L2" t="n">
-        <v>31.61020235221395</v>
-      </c>
-      <c r="M2" t="n">
-        <v>31.61020235221393</v>
-      </c>
-      <c r="N2" t="n">
-        <v>31.61020235221395</v>
-      </c>
-      <c r="O2" t="n">
-        <v>31.61020235221389</v>
-      </c>
-      <c r="P2" t="n">
-        <v>31.61020235221389</v>
       </c>
     </row>
     <row r="3">
@@ -26738,7 +26738,7 @@
         <v>292.0726078812197</v>
       </c>
       <c r="C3" t="n">
-        <v>376.9909126571232</v>
+        <v>376.9909126571221</v>
       </c>
       <c r="D3" t="n">
         <v>548.4699409129046</v>
@@ -26747,7 +26747,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="F3" t="n">
-        <v>1172.850890738448</v>
+        <v>1172.850890738447</v>
       </c>
       <c r="G3" t="n">
         <v>1278.159870620123</v>
@@ -26790,16 +26790,16 @@
         <v>6.876045741711437</v>
       </c>
       <c r="C4" t="n">
-        <v>55.47802368145887</v>
+        <v>55.47802368145804</v>
       </c>
       <c r="D4" t="n">
         <v>187.5255871663199</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="F4" t="n">
-        <v>933.2045016981332</v>
+        <v>933.2045016981323</v>
       </c>
       <c r="G4" t="n">
         <v>1062.255112188953</v>
@@ -26920,7 +26920,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26935,13 +26935,13 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>7.105427357601002e-14</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26960,19 +26960,19 @@
         <v>292.0726078812197</v>
       </c>
       <c r="C3" t="n">
-        <v>84.91830477590355</v>
+        <v>84.91830477590241</v>
       </c>
       <c r="D3" t="n">
-        <v>171.4790282557814</v>
+        <v>171.4790282557825</v>
       </c>
       <c r="E3" t="n">
         <v>541.3067596803937</v>
       </c>
       <c r="F3" t="n">
-        <v>83.07419014514926</v>
+        <v>83.07419014514835</v>
       </c>
       <c r="G3" t="n">
-        <v>105.3089798816754</v>
+        <v>105.3089798816766</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27012,43 +27012,43 @@
         <v>6.876045741711437</v>
       </c>
       <c r="C4" t="n">
-        <v>48.60197793974744</v>
+        <v>48.6019779397466</v>
       </c>
       <c r="D4" t="n">
-        <v>132.047563484861</v>
+        <v>132.0475634848618</v>
       </c>
       <c r="E4" t="n">
-        <v>643.8758682359727</v>
+        <v>643.8758682359729</v>
       </c>
       <c r="F4" t="n">
-        <v>101.8030462958407</v>
+        <v>101.8030462958395</v>
       </c>
       <c r="G4" t="n">
-        <v>129.0506104908198</v>
+        <v>129.050610490821</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>6.876045741711096</v>
+        <v>6.876045741711323</v>
       </c>
       <c r="K4" t="n">
-        <v>48.60197793974744</v>
+        <v>48.6019779397466</v>
       </c>
       <c r="L4" t="n">
-        <v>132.047563484861</v>
+        <v>132.0475634848618</v>
       </c>
       <c r="M4" t="n">
-        <v>643.8758682359727</v>
+        <v>643.8758682359729</v>
       </c>
       <c r="N4" t="n">
-        <v>101.8030462958407</v>
+        <v>101.8030462958393</v>
       </c>
       <c r="O4" t="n">
-        <v>129.0506104908198</v>
+        <v>129.050610490821</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27157,7 +27157,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27258,19 +27258,19 @@
         <v>6.876045741711437</v>
       </c>
       <c r="K4" t="n">
-        <v>48.60197793974744</v>
+        <v>48.6019779397466</v>
       </c>
       <c r="L4" t="n">
-        <v>132.047563484861</v>
+        <v>132.0475634848618</v>
       </c>
       <c r="M4" t="n">
-        <v>643.8758682359727</v>
+        <v>643.8758682359729</v>
       </c>
       <c r="N4" t="n">
-        <v>101.8030462958407</v>
+        <v>101.8030462958395</v>
       </c>
       <c r="O4" t="n">
-        <v>129.0506104908198</v>
+        <v>129.050610490821</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27385,7 +27385,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>375.0543243305503</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
@@ -27427,10 +27427,10 @@
         <v>76.11271209263244</v>
       </c>
       <c r="S2" t="n">
-        <v>182.2638703818502</v>
+        <v>176.2074492925508</v>
       </c>
       <c r="T2" t="n">
-        <v>217.9559587460407</v>
+        <v>211.0799130043293</v>
       </c>
       <c r="U2" t="n">
         <v>251.2517200088194</v>
@@ -27442,7 +27442,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>363.6746795891696</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27458,7 +27458,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>165.8324532466043</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -27467,16 +27467,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>138.1931666516724</v>
       </c>
       <c r="G3" t="n">
-        <v>136.7152855160699</v>
+        <v>130.6588644267705</v>
       </c>
       <c r="H3" t="n">
         <v>106.1680491180583</v>
       </c>
       <c r="I3" t="n">
-        <v>61.71030636713853</v>
+        <v>67.76672745643796</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,13 +27503,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>61.15236399069457</v>
+        <v>54.27631824898314</v>
       </c>
       <c r="S3" t="n">
         <v>160.0140437983948</v>
       </c>
       <c r="T3" t="n">
-        <v>190.7564685508192</v>
+        <v>197.6325142925307</v>
       </c>
       <c r="U3" t="n">
         <v>219.0240053098462</v>
@@ -27543,7 +27543,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>139.5579169048577</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27552,7 +27552,7 @@
         <v>167.4642910491648</v>
       </c>
       <c r="H4" t="n">
-        <v>150.6683888885505</v>
+        <v>151.4880135409626</v>
       </c>
       <c r="I4" t="n">
         <v>139.6115210441259</v>
@@ -27585,10 +27585,10 @@
         <v>153.6115697610955</v>
       </c>
       <c r="S4" t="n">
-        <v>208.7814361393401</v>
+        <v>214.8378572286395</v>
       </c>
       <c r="T4" t="n">
-        <v>225.6951939249344</v>
+        <v>218.8191481832229</v>
       </c>
       <c r="U4" t="n">
         <v>286.2903009032567</v>
@@ -27603,7 +27603,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>211.7086076103834</v>
       </c>
     </row>
     <row r="5">
@@ -27613,10 +27613,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>333.8687984048524</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>309.7948680895495</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -27625,16 +27625,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>370.9886681077369</v>
+        <v>351.3980220602534</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>358.3091724762615</v>
       </c>
       <c r="H5" t="n">
-        <v>268.4757405076761</v>
+        <v>323.953764189135</v>
       </c>
       <c r="I5" t="n">
-        <v>96.56995770718325</v>
+        <v>152.0479813886423</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,10 +27661,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.66849314839412</v>
       </c>
       <c r="S5" t="n">
-        <v>174.484670904138</v>
+        <v>174.4846709041381</v>
       </c>
       <c r="T5" t="n">
         <v>216.4615672720447</v>
@@ -27698,7 +27698,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>91.96704188318071</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
@@ -27707,13 +27707,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>82.00132883180306</v>
+        <v>136.5326310491934</v>
       </c>
       <c r="H6" t="n">
-        <v>48.92596782229244</v>
+        <v>104.4039915037513</v>
       </c>
       <c r="I6" t="n">
-        <v>61.47796620652434</v>
+        <v>61.47796620652443</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27746,7 +27746,7 @@
         <v>156.6213171877726</v>
       </c>
       <c r="T6" t="n">
-        <v>141.4182649309864</v>
+        <v>141.4182649309872</v>
       </c>
       <c r="U6" t="n">
         <v>225.8880343103158</v>
@@ -27758,7 +27758,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>151.2416829860888</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -27783,19 +27783,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>89.94302434147238</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3111596798967</v>
+        <v>137.5004370226172</v>
       </c>
       <c r="H7" t="n">
         <v>156.1829575471336</v>
       </c>
       <c r="I7" t="n">
-        <v>79.5284194577705</v>
+        <v>135.0064431392294</v>
       </c>
       <c r="J7" t="n">
-        <v>45.29592884233758</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,13 +27819,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>91.24820287600357</v>
+        <v>146.7262265574625</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1691950933049</v>
+        <v>212.169195093305</v>
       </c>
       <c r="T7" t="n">
-        <v>205.4122775289926</v>
+        <v>225.0409053471529</v>
       </c>
       <c r="U7" t="n">
         <v>286.2819482831148</v>
@@ -27837,10 +27837,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>170.2316317075791</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>163.1066296706367</v>
       </c>
     </row>
     <row r="8">
@@ -27853,7 +27853,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>231.439532710364</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -27862,16 +27862,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>219.3504585753916</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>225.5722460637382</v>
       </c>
       <c r="H8" t="n">
-        <v>316.8938261062223</v>
+        <v>129.3682389399025</v>
       </c>
       <c r="I8" t="n">
-        <v>125.4713171199747</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,7 +27904,7 @@
         <v>158.7758131900531</v>
       </c>
       <c r="T8" t="n">
-        <v>213.4438810562068</v>
+        <v>185.1079601437685</v>
       </c>
       <c r="U8" t="n">
         <v>251.1692605650303</v>
@@ -27913,13 +27913,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>161.7153815510931</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>182.2055135121492</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>198.7123514897337</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -27929,28 +27929,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>8.19441821039112</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>136.1637893657753</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>100.8417573507397</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>48.77881175550657</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27977,7 +27977,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>26.91122581714238</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>149.7702446909496</v>
@@ -27986,10 +27986,10 @@
         <v>195.4095977920013</v>
       </c>
       <c r="U9" t="n">
-        <v>225.8637684100909</v>
+        <v>38.33818124377106</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>58.7297840960166</v>
       </c>
       <c r="W9" t="n">
         <v>251.6949831609196</v>
@@ -28020,16 +28020,16 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>16.65896295400776</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.0019352027142</v>
       </c>
       <c r="H10" t="n">
         <v>153.4336708318196</v>
       </c>
       <c r="I10" t="n">
-        <v>125.7072197708667</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,13 +28056,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>132.8223696106904</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>206.7802557954962</v>
       </c>
       <c r="T10" t="n">
-        <v>148.8509822652651</v>
+        <v>223.7196734901001</v>
       </c>
       <c r="U10" t="n">
         <v>286.2650814934503</v>
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="C17" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="D17" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="E17" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="F17" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="G17" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="H17" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="I17" t="n">
-        <v>12.38037836605494</v>
+        <v>12.38037836605491</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="T17" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="U17" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="V17" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="W17" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="X17" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="Y17" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221394</v>
       </c>
     </row>
     <row r="18">
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="C19" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="D19" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="E19" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="F19" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="G19" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="H19" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="I19" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="J19" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="K19" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="L19" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="M19" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="N19" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="O19" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="P19" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="Q19" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="R19" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="S19" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="T19" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="U19" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="V19" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="W19" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="X19" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="Y19" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221394</v>
       </c>
     </row>
     <row r="20">
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="C20" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="D20" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="E20" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="F20" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="G20" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="H20" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="I20" t="n">
         <v>12.38037836605494</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="T20" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="U20" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="V20" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="W20" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="X20" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="Y20" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221394</v>
       </c>
     </row>
     <row r="21">
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="C22" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="D22" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="E22" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="F22" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="G22" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="H22" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="I22" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="J22" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="K22" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="L22" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="M22" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="N22" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="O22" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="P22" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="Q22" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="R22" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="S22" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="T22" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="U22" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="V22" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="W22" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="X22" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="Y22" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221394</v>
       </c>
     </row>
     <row r="23">
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="C23" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="D23" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="E23" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="F23" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="G23" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="H23" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="I23" t="n">
         <v>12.38037836605494</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="T23" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="U23" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="V23" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="W23" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="X23" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="Y23" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221394</v>
       </c>
     </row>
     <row r="24">
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="C25" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="D25" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="E25" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="F25" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="G25" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="H25" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="I25" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="J25" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="K25" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="L25" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="M25" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="N25" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="O25" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="P25" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="Q25" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="R25" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="S25" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="T25" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="U25" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="V25" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="W25" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="X25" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="Y25" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221394</v>
       </c>
     </row>
     <row r="26">
@@ -29272,25 +29272,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="C26" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="D26" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="E26" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="F26" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="G26" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="H26" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="I26" t="n">
         <v>12.38037836605494</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="T26" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="U26" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="V26" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="W26" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="X26" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="Y26" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221394</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="C28" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="D28" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="E28" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="F28" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="G28" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="H28" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="I28" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="J28" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="K28" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="L28" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="M28" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="N28" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="O28" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="P28" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="Q28" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="R28" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="S28" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="T28" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="U28" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="V28" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="W28" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="X28" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="Y28" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221394</v>
       </c>
     </row>
     <row r="29">
@@ -29509,25 +29509,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="C29" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="D29" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="E29" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="F29" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="G29" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="H29" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="I29" t="n">
         <v>12.38037836605494</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="T29" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="U29" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="V29" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="W29" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="X29" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="Y29" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221394</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="C31" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="D31" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="E31" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="F31" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="G31" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="H31" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="I31" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="J31" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="K31" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="L31" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="M31" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="N31" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="O31" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="P31" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="Q31" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="R31" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="S31" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="T31" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="U31" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="V31" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="W31" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="X31" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="Y31" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221394</v>
       </c>
     </row>
     <row r="32">
@@ -29746,25 +29746,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="C32" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="D32" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="E32" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="F32" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="G32" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="H32" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="I32" t="n">
         <v>12.38037836605494</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="T32" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="U32" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="V32" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="W32" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="X32" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="Y32" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221389</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="C34" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="D34" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="E34" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="F34" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="G34" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="H34" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="I34" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="J34" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="K34" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="L34" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="M34" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="N34" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="O34" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="P34" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="Q34" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="R34" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="S34" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="T34" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="U34" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="V34" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="W34" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="X34" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="Y34" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221389</v>
       </c>
     </row>
     <row r="35">
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>31.61020235221393</v>
+        <v>31.6102023522138</v>
       </c>
       <c r="C35" t="n">
-        <v>31.61020235221393</v>
+        <v>31.6102023522138</v>
       </c>
       <c r="D35" t="n">
-        <v>31.61020235221393</v>
+        <v>31.6102023522138</v>
       </c>
       <c r="E35" t="n">
-        <v>31.61020235221393</v>
+        <v>31.6102023522138</v>
       </c>
       <c r="F35" t="n">
-        <v>31.61020235221393</v>
+        <v>31.6102023522138</v>
       </c>
       <c r="G35" t="n">
-        <v>31.61020235221393</v>
+        <v>31.6102023522138</v>
       </c>
       <c r="H35" t="n">
-        <v>31.61020235221393</v>
+        <v>31.6102023522138</v>
       </c>
       <c r="I35" t="n">
         <v>12.38037836605494</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>31.61020235221393</v>
+        <v>31.6102023522138</v>
       </c>
       <c r="T35" t="n">
-        <v>31.61020235221393</v>
+        <v>31.6102023522138</v>
       </c>
       <c r="U35" t="n">
-        <v>31.61020235221393</v>
+        <v>31.6102023522138</v>
       </c>
       <c r="V35" t="n">
-        <v>31.61020235221393</v>
+        <v>31.6102023522138</v>
       </c>
       <c r="W35" t="n">
-        <v>31.61020235221393</v>
+        <v>31.6102023522138</v>
       </c>
       <c r="X35" t="n">
-        <v>31.61020235221393</v>
+        <v>31.6102023522138</v>
       </c>
       <c r="Y35" t="n">
-        <v>31.61020235221393</v>
+        <v>31.6102023522138</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>31.61020235221393</v>
+        <v>31.6102023522138</v>
       </c>
       <c r="C37" t="n">
-        <v>31.61020235221393</v>
+        <v>31.6102023522138</v>
       </c>
       <c r="D37" t="n">
-        <v>31.61020235221393</v>
+        <v>31.6102023522138</v>
       </c>
       <c r="E37" t="n">
-        <v>31.61020235221393</v>
+        <v>31.6102023522138</v>
       </c>
       <c r="F37" t="n">
-        <v>31.61020235221393</v>
+        <v>31.6102023522138</v>
       </c>
       <c r="G37" t="n">
-        <v>31.61020235221393</v>
+        <v>31.6102023522138</v>
       </c>
       <c r="H37" t="n">
-        <v>31.61020235221393</v>
+        <v>31.6102023522138</v>
       </c>
       <c r="I37" t="n">
-        <v>31.61020235221393</v>
+        <v>31.6102023522138</v>
       </c>
       <c r="J37" t="n">
-        <v>31.61020235221393</v>
+        <v>31.6102023522138</v>
       </c>
       <c r="K37" t="n">
-        <v>31.61020235221393</v>
+        <v>31.6102023522138</v>
       </c>
       <c r="L37" t="n">
-        <v>31.61020235221393</v>
+        <v>31.6102023522138</v>
       </c>
       <c r="M37" t="n">
-        <v>31.61020235221393</v>
+        <v>31.6102023522138</v>
       </c>
       <c r="N37" t="n">
-        <v>31.61020235221393</v>
+        <v>31.6102023522138</v>
       </c>
       <c r="O37" t="n">
-        <v>31.61020235221393</v>
+        <v>31.6102023522138</v>
       </c>
       <c r="P37" t="n">
-        <v>31.61020235221393</v>
+        <v>31.6102023522138</v>
       </c>
       <c r="Q37" t="n">
-        <v>31.61020235221393</v>
+        <v>31.6102023522138</v>
       </c>
       <c r="R37" t="n">
-        <v>31.61020235221393</v>
+        <v>31.6102023522138</v>
       </c>
       <c r="S37" t="n">
-        <v>31.61020235221393</v>
+        <v>31.6102023522138</v>
       </c>
       <c r="T37" t="n">
-        <v>31.61020235221393</v>
+        <v>31.6102023522138</v>
       </c>
       <c r="U37" t="n">
-        <v>31.61020235221393</v>
+        <v>31.6102023522138</v>
       </c>
       <c r="V37" t="n">
-        <v>31.61020235221393</v>
+        <v>31.6102023522138</v>
       </c>
       <c r="W37" t="n">
-        <v>31.61020235221393</v>
+        <v>31.6102023522138</v>
       </c>
       <c r="X37" t="n">
-        <v>31.61020235221393</v>
+        <v>31.6102023522138</v>
       </c>
       <c r="Y37" t="n">
-        <v>31.61020235221393</v>
+        <v>31.6102023522138</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="C38" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="D38" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="E38" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="F38" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="G38" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="H38" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="I38" t="n">
         <v>12.38037836605494</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="T38" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="U38" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="V38" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221429</v>
       </c>
       <c r="W38" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="X38" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="Y38" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221388</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="C40" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="D40" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="E40" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="F40" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="G40" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="H40" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="I40" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="J40" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="K40" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="L40" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="M40" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="N40" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="O40" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="P40" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="Q40" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="R40" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="S40" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="T40" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="U40" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="V40" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="W40" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="X40" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="Y40" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221388</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="C41" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="D41" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="E41" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="F41" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="G41" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="H41" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="I41" t="n">
         <v>12.38037836605494</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="T41" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="U41" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="V41" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="W41" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="X41" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="Y41" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221388</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="C43" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="D43" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="E43" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="F43" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="G43" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="H43" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="I43" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="J43" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="K43" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="L43" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="M43" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="N43" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="O43" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="P43" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="Q43" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="R43" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="S43" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="T43" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="U43" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="V43" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="W43" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="X43" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="Y43" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221388</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="C44" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="D44" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="E44" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="F44" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="G44" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="H44" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="I44" t="n">
         <v>12.38037836605494</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="T44" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="U44" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="V44" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="W44" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="X44" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="Y44" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221388</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="C46" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="D46" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="E46" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="F46" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="G46" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="H46" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="I46" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="J46" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="K46" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="L46" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="M46" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="N46" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="O46" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="P46" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="Q46" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="R46" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="S46" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="T46" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="U46" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="V46" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="W46" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="X46" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="Y46" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221388</v>
       </c>
     </row>
   </sheetData>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.51554135741557</v>
+        <v>1.515541357415565</v>
       </c>
       <c r="H5" t="n">
-        <v>15.52103792663221</v>
+        <v>15.52103792663216</v>
       </c>
       <c r="I5" t="n">
-        <v>58.4279081817638</v>
+        <v>58.42790818176363</v>
       </c>
       <c r="J5" t="n">
-        <v>128.6296782839498</v>
+        <v>128.6296782839494</v>
       </c>
       <c r="K5" t="n">
-        <v>192.7825439433509</v>
+        <v>192.7825439433503</v>
       </c>
       <c r="L5" t="n">
-        <v>239.1637927603577</v>
+        <v>239.163792760357</v>
       </c>
       <c r="M5" t="n">
-        <v>266.1158013752968</v>
+        <v>266.115801375296</v>
       </c>
       <c r="N5" t="n">
-        <v>270.4218332570538</v>
+        <v>270.421833257053</v>
       </c>
       <c r="O5" t="n">
-        <v>255.3516688842527</v>
+        <v>255.351668884252</v>
       </c>
       <c r="P5" t="n">
-        <v>217.9367416230558</v>
+        <v>217.9367416230552</v>
       </c>
       <c r="Q5" t="n">
-        <v>163.6614167606107</v>
+        <v>163.6614167606102</v>
       </c>
       <c r="R5" t="n">
-        <v>95.20062479275585</v>
+        <v>95.20062479275556</v>
       </c>
       <c r="S5" t="n">
-        <v>34.53539868210733</v>
+        <v>34.53539868210722</v>
       </c>
       <c r="T5" t="n">
-        <v>6.634282292086659</v>
+        <v>6.634282292086639</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1212433085932455</v>
+        <v>0.1212433085932452</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8108861140172084</v>
+        <v>0.810886114017206</v>
       </c>
       <c r="H6" t="n">
-        <v>7.831452732745146</v>
+        <v>7.831452732745122</v>
       </c>
       <c r="I6" t="n">
-        <v>27.91866664489073</v>
+        <v>27.91866664489065</v>
       </c>
       <c r="J6" t="n">
-        <v>76.61095518440654</v>
+        <v>76.61095518440631</v>
       </c>
       <c r="K6" t="n">
-        <v>130.9403248235595</v>
+        <v>130.9403248235591</v>
       </c>
       <c r="L6" t="n">
-        <v>176.0654257650084</v>
+        <v>176.0654257650078</v>
       </c>
       <c r="M6" t="n">
-        <v>197.6120576034772</v>
+        <v>197.6120576034764</v>
       </c>
       <c r="N6" t="n">
-        <v>186.8197357647922</v>
+        <v>186.8197357647913</v>
       </c>
       <c r="O6" t="n">
-        <v>192.9304343293487</v>
+        <v>192.9304343293481</v>
       </c>
       <c r="P6" t="n">
-        <v>154.8436825968475</v>
+        <v>154.843682596847</v>
       </c>
       <c r="Q6" t="n">
-        <v>103.5089011506879</v>
+        <v>103.5089011506876</v>
       </c>
       <c r="R6" t="n">
-        <v>50.34606942994564</v>
+        <v>50.34606942994549</v>
       </c>
       <c r="S6" t="n">
-        <v>15.06185391606524</v>
+        <v>15.0618539160652</v>
       </c>
       <c r="T6" t="n">
-        <v>3.268440082376378</v>
+        <v>3.268440082376368</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05334777065902689</v>
+        <v>0.05334777065902673</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6798196785620254</v>
+        <v>0.6798196785620233</v>
       </c>
       <c r="H7" t="n">
-        <v>6.044214960306012</v>
+        <v>6.044214960305994</v>
       </c>
       <c r="I7" t="n">
-        <v>20.44403178802892</v>
+        <v>20.44403178802885</v>
       </c>
       <c r="J7" t="n">
-        <v>48.06325127433519</v>
+        <v>48.06325127433504</v>
       </c>
       <c r="K7" t="n">
-        <v>78.9826862911153</v>
+        <v>78.98268629111506</v>
       </c>
       <c r="L7" t="n">
-        <v>101.0706456654851</v>
+        <v>101.0706456654848</v>
       </c>
       <c r="M7" t="n">
-        <v>106.5648247040455</v>
+        <v>106.5648247040452</v>
       </c>
       <c r="N7" t="n">
-        <v>104.030951356678</v>
+        <v>104.0309513566777</v>
       </c>
       <c r="O7" t="n">
-        <v>96.08942147529432</v>
+        <v>96.08942147529402</v>
       </c>
       <c r="P7" t="n">
-        <v>82.22110003262893</v>
+        <v>82.22110003262868</v>
       </c>
       <c r="Q7" t="n">
-        <v>56.9256278112256</v>
+        <v>56.92562781122543</v>
       </c>
       <c r="R7" t="n">
-        <v>30.56716481970706</v>
+        <v>30.56716481970697</v>
       </c>
       <c r="S7" t="n">
-        <v>11.84740294366729</v>
+        <v>11.84740294366726</v>
       </c>
       <c r="T7" t="n">
-        <v>2.904684081128653</v>
+        <v>2.904684081128644</v>
       </c>
       <c r="U7" t="n">
-        <v>0.03708107337611052</v>
+        <v>0.03708107337611041</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.714978455229937</v>
+        <v>4.714978455229932</v>
       </c>
       <c r="H14" t="n">
-        <v>48.2872731046236</v>
+        <v>48.28727310462356</v>
       </c>
       <c r="I14" t="n">
-        <v>181.7742068952523</v>
+        <v>181.7742068952521</v>
       </c>
       <c r="J14" t="n">
-        <v>400.1779026645722</v>
+        <v>400.1779026645719</v>
       </c>
       <c r="K14" t="n">
-        <v>599.7629406744555</v>
+        <v>599.7629406744551</v>
       </c>
       <c r="L14" t="n">
-        <v>744.0589625736989</v>
+        <v>744.0589625736983</v>
       </c>
       <c r="M14" t="n">
-        <v>827.9089606768941</v>
+        <v>827.9089606768936</v>
       </c>
       <c r="N14" t="n">
-        <v>841.3053932128163</v>
+        <v>841.3053932128156</v>
       </c>
       <c r="O14" t="n">
-        <v>794.4208261986236</v>
+        <v>794.420826198623</v>
       </c>
       <c r="P14" t="n">
-        <v>678.0197955851344</v>
+        <v>678.0197955851339</v>
       </c>
       <c r="Q14" t="n">
-        <v>509.1646296572121</v>
+        <v>509.1646296572118</v>
       </c>
       <c r="R14" t="n">
-        <v>296.1772653883377</v>
+        <v>296.1772653883375</v>
       </c>
       <c r="S14" t="n">
-        <v>107.4425715485523</v>
+        <v>107.4425715485522</v>
       </c>
       <c r="T14" t="n">
-        <v>20.63981818776906</v>
+        <v>20.63981818776904</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3771982764183948</v>
+        <v>0.3771982764183945</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.522735878192133</v>
+        <v>2.522735878192131</v>
       </c>
       <c r="H15" t="n">
-        <v>24.36431756043455</v>
+        <v>24.36431756043453</v>
       </c>
       <c r="I15" t="n">
-        <v>86.85735370091335</v>
+        <v>86.85735370091328</v>
       </c>
       <c r="J15" t="n">
-        <v>238.343217333933</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>407.3665211728059</v>
+        <v>219.6926579631663</v>
       </c>
       <c r="L15" t="n">
-        <v>547.7545598679892</v>
+        <v>547.7545598679887</v>
       </c>
       <c r="M15" t="n">
-        <v>639.2037354524539</v>
+        <v>639.2037354524533</v>
       </c>
       <c r="N15" t="n">
-        <v>367.8935155477377</v>
+        <v>656.1215563198033</v>
       </c>
       <c r="O15" t="n">
-        <v>600.2230402819675</v>
+        <v>600.2230402819671</v>
       </c>
       <c r="P15" t="n">
-        <v>481.7319064242503</v>
+        <v>481.73190642425</v>
       </c>
       <c r="Q15" t="n">
-        <v>322.0250219250168</v>
+        <v>322.0250219250166</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>156.6309170688062</v>
       </c>
       <c r="S15" t="n">
-        <v>46.85871247431436</v>
+        <v>46.85871247431432</v>
       </c>
       <c r="T15" t="n">
-        <v>10.16839593008144</v>
+        <v>10.16839593008143</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1659694656705351</v>
+        <v>0.165969465670535</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.114977016085725</v>
+        <v>2.114977016085723</v>
       </c>
       <c r="H16" t="n">
-        <v>18.80406837938037</v>
+        <v>18.80406837938035</v>
       </c>
       <c r="I16" t="n">
-        <v>63.60312699283254</v>
+        <v>63.6031269928325</v>
       </c>
       <c r="J16" t="n">
-        <v>149.5288750372607</v>
+        <v>149.5288750372606</v>
       </c>
       <c r="K16" t="n">
-        <v>245.721875141596</v>
+        <v>245.7218751415958</v>
       </c>
       <c r="L16" t="n">
-        <v>314.4394011005995</v>
+        <v>314.4394011005993</v>
       </c>
       <c r="M16" t="n">
-        <v>331.5322608033287</v>
+        <v>331.5322608033284</v>
       </c>
       <c r="N16" t="n">
-        <v>323.6491646524639</v>
+        <v>323.6491646524637</v>
       </c>
       <c r="O16" t="n">
-        <v>298.942387691826</v>
+        <v>298.9423876918258</v>
       </c>
       <c r="P16" t="n">
-        <v>255.796856563677</v>
+        <v>255.7968565636768</v>
       </c>
       <c r="Q16" t="n">
-        <v>177.1004845015056</v>
+        <v>177.1004845015054</v>
       </c>
       <c r="R16" t="n">
-        <v>95.0970574687272</v>
+        <v>95.09705746872713</v>
       </c>
       <c r="S16" t="n">
-        <v>36.85828127123939</v>
+        <v>36.85828127123936</v>
       </c>
       <c r="T16" t="n">
-        <v>9.036719977820821</v>
+        <v>9.036719977820814</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1153623826955851</v>
+        <v>0.115362382695585</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32227,46 +32227,46 @@
         <v>5.138331138171345</v>
       </c>
       <c r="H17" t="n">
-        <v>52.6229337687973</v>
+        <v>52.62293376879731</v>
       </c>
       <c r="I17" t="n">
         <v>198.095511204351</v>
       </c>
       <c r="J17" t="n">
-        <v>436.1094324383706</v>
+        <v>436.1094324383707</v>
       </c>
       <c r="K17" t="n">
-        <v>653.6149895171637</v>
+        <v>653.6149895171638</v>
       </c>
       <c r="L17" t="n">
-        <v>810.8671910869753</v>
+        <v>810.8671910869754</v>
       </c>
       <c r="M17" t="n">
-        <v>902.2459874654298</v>
+        <v>902.2459874654299</v>
       </c>
       <c r="N17" t="n">
-        <v>916.8452708117592</v>
+        <v>916.8452708117594</v>
       </c>
       <c r="O17" t="n">
-        <v>865.7509905565679</v>
+        <v>865.750990556568</v>
       </c>
       <c r="P17" t="n">
-        <v>738.8984405829626</v>
+        <v>738.8984405829628</v>
       </c>
       <c r="Q17" t="n">
-        <v>554.8819566972012</v>
+        <v>554.8819566972013</v>
       </c>
       <c r="R17" t="n">
         <v>322.7706933581561</v>
       </c>
       <c r="S17" t="n">
-        <v>117.0897208110796</v>
+        <v>117.0897208110797</v>
       </c>
       <c r="T17" t="n">
-        <v>22.49304455734507</v>
+        <v>22.49304455734508</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4110664910537075</v>
+        <v>0.4110664910537076</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32306,31 +32306,31 @@
         <v>2.749249533031963</v>
       </c>
       <c r="H18" t="n">
-        <v>26.55196259533501</v>
+        <v>26.55196259533502</v>
       </c>
       <c r="I18" t="n">
-        <v>94.65617909781101</v>
+        <v>94.65617909781103</v>
       </c>
       <c r="J18" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>443.9435090247271</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
         <v>596.9368339155585</v>
       </c>
       <c r="M18" t="n">
-        <v>696.597129487967</v>
+        <v>696.5971294879671</v>
       </c>
       <c r="N18" t="n">
-        <v>715.033982716063</v>
+        <v>715.0339827160632</v>
       </c>
       <c r="O18" t="n">
-        <v>654.1164009578284</v>
+        <v>654.1164009578285</v>
       </c>
       <c r="P18" t="n">
-        <v>215.4343416764904</v>
+        <v>521.536411726858</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32388,7 +32388,7 @@
         <v>20.49246481092592</v>
       </c>
       <c r="I19" t="n">
-        <v>69.31398118051422</v>
+        <v>69.31398118051423</v>
       </c>
       <c r="J19" t="n">
         <v>162.9549067838147</v>
@@ -32397,13 +32397,13 @@
         <v>267.7849696151667</v>
       </c>
       <c r="L19" t="n">
-        <v>342.6725659692048</v>
+        <v>342.6725659692049</v>
       </c>
       <c r="M19" t="n">
-        <v>361.3001745754553</v>
+        <v>361.3001745754554</v>
       </c>
       <c r="N19" t="n">
-        <v>352.7092639696482</v>
+        <v>352.7092639696483</v>
       </c>
       <c r="O19" t="n">
         <v>325.7840929246177</v>
@@ -32418,10 +32418,10 @@
         <v>103.6357167227398</v>
       </c>
       <c r="S19" t="n">
-        <v>40.16774544227499</v>
+        <v>40.167745442275</v>
       </c>
       <c r="T19" t="n">
-        <v>9.848117035925535</v>
+        <v>9.848117035925537</v>
       </c>
       <c r="U19" t="n">
         <v>0.1257206430118155</v>
@@ -32549,13 +32549,13 @@
         <v>94.65617909781101</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>259.7437903115856</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>443.9435090247271</v>
       </c>
       <c r="L21" t="n">
-        <v>382.5296487700709</v>
+        <v>596.9368339155585</v>
       </c>
       <c r="M21" t="n">
         <v>696.597129487967</v>
@@ -32564,13 +32564,13 @@
         <v>715.033982716063</v>
       </c>
       <c r="O21" t="n">
-        <v>654.1164009578284</v>
+        <v>211.6584993001647</v>
       </c>
       <c r="P21" t="n">
         <v>524.9860796892351</v>
       </c>
       <c r="Q21" t="n">
-        <v>350.9392912691327</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
@@ -32798,19 +32798,19 @@
         <v>696.597129487967</v>
       </c>
       <c r="N24" t="n">
-        <v>548.1235910649146</v>
+        <v>715.033982716063</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>602.6701715750696</v>
       </c>
       <c r="P24" t="n">
-        <v>524.9860796892351</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>350.9392912691327</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>170.6946332877214</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>51.06610426486998</v>
@@ -33023,31 +33023,31 @@
         <v>94.65617909781101</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>259.7437903115856</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>443.9435090247271</v>
       </c>
       <c r="L27" t="n">
-        <v>357.5145194463132</v>
+        <v>596.9368339155585</v>
       </c>
       <c r="M27" t="n">
         <v>696.597129487967</v>
       </c>
       <c r="N27" t="n">
-        <v>715.033982716063</v>
+        <v>663.587753333304</v>
       </c>
       <c r="O27" t="n">
         <v>654.1164009578284</v>
       </c>
       <c r="P27" t="n">
-        <v>524.9860796892351</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>350.9392912691327</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>170.6946332877214</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>51.06610426486998</v>
@@ -33272,10 +33272,10 @@
         <v>696.597129487967</v>
       </c>
       <c r="N30" t="n">
-        <v>663.587753333304</v>
+        <v>715.033982716063</v>
       </c>
       <c r="O30" t="n">
-        <v>654.1164009578284</v>
+        <v>602.6701715750696</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33497,13 +33497,13 @@
         <v>94.65617909781101</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>259.7437903115856</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>443.9435090247271</v>
       </c>
       <c r="L33" t="n">
-        <v>357.5145194463132</v>
+        <v>596.9368339155585</v>
       </c>
       <c r="M33" t="n">
         <v>696.597129487967</v>
@@ -33512,16 +33512,16 @@
         <v>715.033982716063</v>
       </c>
       <c r="O33" t="n">
-        <v>654.1164009578284</v>
+        <v>602.6701715750696</v>
       </c>
       <c r="P33" t="n">
-        <v>524.9860796892351</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>350.9392912691327</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>170.6946332877214</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>51.06610426486998</v>
@@ -33746,10 +33746,10 @@
         <v>696.597129487967</v>
       </c>
       <c r="N36" t="n">
-        <v>663.587753333304</v>
+        <v>715.033982716063</v>
       </c>
       <c r="O36" t="n">
-        <v>654.1164009578284</v>
+        <v>602.6701715750696</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33983,16 +33983,16 @@
         <v>696.597129487967</v>
       </c>
       <c r="N39" t="n">
-        <v>715.033982716063</v>
+        <v>663.587753333304</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>654.1164009578284</v>
       </c>
       <c r="P39" t="n">
-        <v>524.9860796892351</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>209.0440289417418</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
@@ -34214,10 +34214,10 @@
         <v>443.9435090247271</v>
       </c>
       <c r="L42" t="n">
-        <v>596.9368339155585</v>
+        <v>545.4906045327996</v>
       </c>
       <c r="M42" t="n">
-        <v>645.1509001052082</v>
+        <v>696.597129487967</v>
       </c>
       <c r="N42" t="n">
         <v>715.033982716063</v>
@@ -34448,7 +34448,7 @@
         <v>259.7437903115856</v>
       </c>
       <c r="K45" t="n">
-        <v>443.9435090247271</v>
+        <v>392.4972796419682</v>
       </c>
       <c r="L45" t="n">
         <v>596.9368339155585</v>
@@ -34457,7 +34457,7 @@
         <v>696.597129487967</v>
       </c>
       <c r="N45" t="n">
-        <v>663.587753333304</v>
+        <v>715.033982716063</v>
       </c>
       <c r="O45" t="n">
         <v>654.1164009578284</v>
@@ -34699,7 +34699,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>6.598225711743296</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -34708,13 +34708,13 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="P2" t="n">
-        <v>6.598225711743297</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="Q2" t="n">
         <v>6.876045741711437</v>
@@ -34863,16 +34863,16 @@
         <v>6.876045741711437</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>6.598225711743296</v>
       </c>
       <c r="N4" t="n">
-        <v>6.598225711743296</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="O4" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="P4" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34936,22 +34936,22 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>55.47802368145887</v>
+        <v>55.47802368145804</v>
       </c>
       <c r="L5" t="n">
-        <v>55.47802368145887</v>
+        <v>3.397377790369745</v>
       </c>
       <c r="M5" t="n">
-        <v>35.76956814802409</v>
+        <v>35.7695681480233</v>
       </c>
       <c r="N5" t="n">
-        <v>47.69148544196566</v>
+        <v>55.47802368145804</v>
       </c>
       <c r="O5" t="n">
-        <v>25.25345746256602</v>
+        <v>25.25345746256525</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>44.29410765159583</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35018,19 +35018,19 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>37.51104598513419</v>
+        <v>37.51104598513365</v>
       </c>
       <c r="M6" t="n">
-        <v>55.47802368145887</v>
+        <v>55.47802368145804</v>
       </c>
       <c r="N6" t="n">
-        <v>55.47802368145887</v>
+        <v>55.47802368145804</v>
       </c>
       <c r="O6" t="n">
-        <v>50.33418988490428</v>
+        <v>50.33418988490368</v>
       </c>
       <c r="P6" t="n">
-        <v>20.86927518251721</v>
+        <v>20.86927518251676</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35094,19 +35094,19 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>55.47802368145804</v>
       </c>
       <c r="L7" t="n">
-        <v>55.47802368145887</v>
+        <v>55.47802368145804</v>
       </c>
       <c r="M7" t="n">
-        <v>53.23648737109691</v>
+        <v>55.47802368145804</v>
       </c>
       <c r="N7" t="n">
-        <v>55.47802368145887</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>55.47802368145887</v>
+        <v>53.23648737109609</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
@@ -35331,22 +35331,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>92.63945645062401</v>
+        <v>28.45844197068213</v>
       </c>
       <c r="L10" t="n">
         <v>174.6339172880152</v>
       </c>
       <c r="M10" t="n">
-        <v>170.3060203105423</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="N10" t="n">
-        <v>23.66518529520826</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="O10" t="n">
         <v>164.382023673283</v>
       </c>
       <c r="P10" t="n">
-        <v>116.8989542469472</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>219.1319981378859</v>
+        <v>219.1319981378856</v>
       </c>
       <c r="K14" t="n">
-        <v>379.673089629475</v>
+        <v>379.6730896294745</v>
       </c>
       <c r="L14" t="n">
-        <v>508.2925476037116</v>
+        <v>508.2925476037111</v>
       </c>
       <c r="M14" t="n">
-        <v>597.5627274496214</v>
+        <v>597.5627274496209</v>
       </c>
       <c r="N14" t="n">
-        <v>611.8923296162254</v>
+        <v>611.8923296162247</v>
       </c>
       <c r="O14" t="n">
-        <v>564.3226147769368</v>
+        <v>564.3226147769362</v>
       </c>
       <c r="P14" t="n">
-        <v>446.7867998298648</v>
+        <v>446.7867998298644</v>
       </c>
       <c r="Q14" t="n">
-        <v>286.8589397827626</v>
+        <v>286.8589397827623</v>
       </c>
       <c r="R14" t="n">
-        <v>80.59172757420561</v>
+        <v>80.59172757420538</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,31 +35723,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>111.5055906672663</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>269.5250821984469</v>
+        <v>81.85121898880735</v>
       </c>
       <c r="L15" t="n">
-        <v>409.200180088115</v>
+        <v>409.2001800881146</v>
       </c>
       <c r="M15" t="n">
-        <v>497.0697015304356</v>
+        <v>497.069701530435</v>
       </c>
       <c r="N15" t="n">
-        <v>236.5518034644044</v>
+        <v>524.77984423647</v>
       </c>
       <c r="O15" t="n">
-        <v>457.6267958375231</v>
+        <v>457.6267958375226</v>
       </c>
       <c r="P15" t="n">
-        <v>347.7574990099201</v>
+        <v>347.7574990099197</v>
       </c>
       <c r="Q15" t="n">
-        <v>182.0432478389953</v>
+        <v>182.0432478389951</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>10.95141310484226</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>56.16969492058797</v>
+        <v>56.16969492058786</v>
       </c>
       <c r="K16" t="n">
-        <v>223.4523833157131</v>
+        <v>223.452383315713</v>
       </c>
       <c r="L16" t="n">
-        <v>342.0294263609156</v>
+        <v>342.0294263609154</v>
       </c>
       <c r="M16" t="n">
-        <v>371.1161377651692</v>
+        <v>371.116137765169</v>
       </c>
       <c r="N16" t="n">
-        <v>367.7813370316925</v>
+        <v>367.7813370316923</v>
       </c>
       <c r="O16" t="n">
-        <v>323.5275156058657</v>
+        <v>323.5275156058655</v>
       </c>
       <c r="P16" t="n">
-        <v>253.0754158285705</v>
+        <v>253.0754158285703</v>
       </c>
       <c r="Q16" t="n">
-        <v>90.93844124981119</v>
+        <v>90.93844124981105</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>255.0635279116843</v>
+        <v>255.0635279116844</v>
       </c>
       <c r="K17" t="n">
-        <v>433.5251384721832</v>
+        <v>433.5251384721833</v>
       </c>
       <c r="L17" t="n">
         <v>575.1007761169881</v>
       </c>
       <c r="M17" t="n">
-        <v>671.8997542381571</v>
+        <v>671.8997542381572</v>
       </c>
       <c r="N17" t="n">
-        <v>687.4322072151683</v>
+        <v>687.4322072151685</v>
       </c>
       <c r="O17" t="n">
-        <v>635.6527791348811</v>
+        <v>635.6527791348813</v>
       </c>
       <c r="P17" t="n">
-        <v>507.6654448276931</v>
+        <v>507.6654448276933</v>
       </c>
       <c r="Q17" t="n">
-        <v>332.5762668227517</v>
+        <v>332.5762668227518</v>
       </c>
       <c r="R17" t="n">
-        <v>107.1851555440239</v>
+        <v>107.185155544024</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,22 +35963,22 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>306.1020700503681</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>458.3824541356843</v>
       </c>
       <c r="M18" t="n">
-        <v>554.4630955659486</v>
+        <v>554.4630955659488</v>
       </c>
       <c r="N18" t="n">
-        <v>583.6922706327297</v>
+        <v>583.6922706327299</v>
       </c>
       <c r="O18" t="n">
-        <v>511.520156513384</v>
+        <v>511.5201565133841</v>
       </c>
       <c r="P18" t="n">
-        <v>81.45993426216013</v>
+        <v>387.5620043125277</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36042,19 +36042,19 @@
         <v>101.2059290193558</v>
       </c>
       <c r="K19" t="n">
-        <v>277.1256801414977</v>
+        <v>277.1256801414978</v>
       </c>
       <c r="L19" t="n">
-        <v>401.8727935817348</v>
+        <v>401.872793581735</v>
       </c>
       <c r="M19" t="n">
-        <v>432.4942538895098</v>
+        <v>432.4942538895099</v>
       </c>
       <c r="N19" t="n">
         <v>428.4516387010908</v>
       </c>
       <c r="O19" t="n">
-        <v>381.9794231908712</v>
+        <v>381.9794231908713</v>
       </c>
       <c r="P19" t="n">
         <v>307.6533340553059</v>
@@ -36197,13 +36197,13 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>132.9061636449189</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>306.1020700503681</v>
       </c>
       <c r="L21" t="n">
-        <v>243.9752689901967</v>
+        <v>458.3824541356843</v>
       </c>
       <c r="M21" t="n">
         <v>554.4630955659486</v>
@@ -36212,13 +36212,13 @@
         <v>583.6922706327297</v>
       </c>
       <c r="O21" t="n">
-        <v>511.520156513384</v>
+        <v>69.06225485572025</v>
       </c>
       <c r="P21" t="n">
         <v>391.0116722749049</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.9575171831112</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36279,19 +36279,19 @@
         <v>101.2059290193558</v>
       </c>
       <c r="K22" t="n">
-        <v>277.1256801414977</v>
+        <v>277.1256801414978</v>
       </c>
       <c r="L22" t="n">
-        <v>401.8727935817348</v>
+        <v>401.8727935817349</v>
       </c>
       <c r="M22" t="n">
-        <v>432.4942538895098</v>
+        <v>432.4942538895099</v>
       </c>
       <c r="N22" t="n">
         <v>428.4516387010908</v>
       </c>
       <c r="O22" t="n">
-        <v>381.9794231908712</v>
+        <v>381.9794231908713</v>
       </c>
       <c r="P22" t="n">
         <v>307.6533340553059</v>
@@ -36355,7 +36355,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>255.0635279116843</v>
+        <v>255.0635279116849</v>
       </c>
       <c r="K23" t="n">
         <v>433.5251384721832</v>
@@ -36379,7 +36379,7 @@
         <v>332.5762668227517</v>
       </c>
       <c r="R23" t="n">
-        <v>107.1851555440256</v>
+        <v>107.1851555440239</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36446,19 +36446,19 @@
         <v>554.4630955659486</v>
       </c>
       <c r="N24" t="n">
-        <v>416.7818789815813</v>
+        <v>583.6922706327297</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>460.0739271306251</v>
       </c>
       <c r="P24" t="n">
-        <v>391.0116722749049</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.9575171831112</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>25.01512932375746</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36516,19 +36516,19 @@
         <v>101.2059290193558</v>
       </c>
       <c r="K25" t="n">
-        <v>277.1256801414977</v>
+        <v>277.1256801414978</v>
       </c>
       <c r="L25" t="n">
-        <v>401.8727935817348</v>
+        <v>401.8727935817349</v>
       </c>
       <c r="M25" t="n">
-        <v>432.4942538895098</v>
+        <v>432.4942538895099</v>
       </c>
       <c r="N25" t="n">
         <v>428.4516387010908</v>
       </c>
       <c r="O25" t="n">
-        <v>381.9794231908712</v>
+        <v>381.9794231908713</v>
       </c>
       <c r="P25" t="n">
         <v>307.6533340553059</v>
@@ -36671,31 +36671,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>132.9061636449189</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>306.1020700503681</v>
       </c>
       <c r="L27" t="n">
-        <v>218.960139666439</v>
+        <v>458.3824541356843</v>
       </c>
       <c r="M27" t="n">
         <v>554.4630955659486</v>
       </c>
       <c r="N27" t="n">
-        <v>583.6922706327297</v>
+        <v>532.2460412499707</v>
       </c>
       <c r="O27" t="n">
         <v>511.520156513384</v>
       </c>
       <c r="P27" t="n">
-        <v>391.0116722749049</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.9575171831112</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>25.01512932375746</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36753,19 +36753,19 @@
         <v>101.2059290193558</v>
       </c>
       <c r="K28" t="n">
-        <v>277.1256801414977</v>
+        <v>277.1256801414978</v>
       </c>
       <c r="L28" t="n">
-        <v>401.8727935817348</v>
+        <v>401.8727935817349</v>
       </c>
       <c r="M28" t="n">
-        <v>432.4942538895098</v>
+        <v>432.4942538895099</v>
       </c>
       <c r="N28" t="n">
         <v>428.4516387010908</v>
       </c>
       <c r="O28" t="n">
-        <v>381.9794231908712</v>
+        <v>381.9794231908713</v>
       </c>
       <c r="P28" t="n">
         <v>307.6533340553059</v>
@@ -36829,7 +36829,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>255.0635279116843</v>
+        <v>255.0635279116849</v>
       </c>
       <c r="K29" t="n">
         <v>433.5251384721832</v>
@@ -36920,10 +36920,10 @@
         <v>554.4630955659486</v>
       </c>
       <c r="N30" t="n">
-        <v>532.2460412499707</v>
+        <v>583.6922706327297</v>
       </c>
       <c r="O30" t="n">
-        <v>511.520156513384</v>
+        <v>460.0739271306251</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -36990,19 +36990,19 @@
         <v>101.2059290193558</v>
       </c>
       <c r="K31" t="n">
-        <v>277.1256801414977</v>
+        <v>277.1256801414978</v>
       </c>
       <c r="L31" t="n">
-        <v>401.8727935817348</v>
+        <v>401.8727935817349</v>
       </c>
       <c r="M31" t="n">
-        <v>432.4942538895098</v>
+        <v>432.4942538895099</v>
       </c>
       <c r="N31" t="n">
         <v>428.4516387010908</v>
       </c>
       <c r="O31" t="n">
-        <v>381.9794231908712</v>
+        <v>381.9794231908713</v>
       </c>
       <c r="P31" t="n">
         <v>307.6533340553059</v>
@@ -37145,13 +37145,13 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>132.9061636449189</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>306.1020700503681</v>
       </c>
       <c r="L33" t="n">
-        <v>218.960139666439</v>
+        <v>458.3824541356843</v>
       </c>
       <c r="M33" t="n">
         <v>554.4630955659486</v>
@@ -37160,16 +37160,16 @@
         <v>583.6922706327297</v>
       </c>
       <c r="O33" t="n">
-        <v>511.520156513384</v>
+        <v>460.0739271306251</v>
       </c>
       <c r="P33" t="n">
-        <v>391.0116722749049</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.9575171831112</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>25.01512932375746</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37230,16 +37230,16 @@
         <v>277.1256801414978</v>
       </c>
       <c r="L34" t="n">
-        <v>401.8727935817349</v>
+        <v>401.8727935817348</v>
       </c>
       <c r="M34" t="n">
-        <v>432.4942538895099</v>
+        <v>432.4942538895098</v>
       </c>
       <c r="N34" t="n">
         <v>428.4516387010908</v>
       </c>
       <c r="O34" t="n">
-        <v>381.9794231908713</v>
+        <v>381.9794231908712</v>
       </c>
       <c r="P34" t="n">
         <v>307.6533340553059</v>
@@ -37394,10 +37394,10 @@
         <v>554.4630955659486</v>
       </c>
       <c r="N36" t="n">
-        <v>532.2460412499707</v>
+        <v>583.6922706327297</v>
       </c>
       <c r="O36" t="n">
-        <v>511.520156513384</v>
+        <v>460.0739271306251</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37461,28 +37461,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>101.2059290193558</v>
+        <v>101.2059290193557</v>
       </c>
       <c r="K37" t="n">
-        <v>277.1256801414978</v>
+        <v>277.1256801414976</v>
       </c>
       <c r="L37" t="n">
-        <v>401.8727935817349</v>
+        <v>401.8727935817348</v>
       </c>
       <c r="M37" t="n">
-        <v>432.4942538895099</v>
+        <v>432.4942538895098</v>
       </c>
       <c r="N37" t="n">
-        <v>428.4516387010908</v>
+        <v>428.4516387010907</v>
       </c>
       <c r="O37" t="n">
-        <v>381.9794231908713</v>
+        <v>381.9794231908711</v>
       </c>
       <c r="P37" t="n">
-        <v>307.6533340553059</v>
+        <v>307.6533340553058</v>
       </c>
       <c r="Q37" t="n">
-        <v>138.4502995641581</v>
+        <v>138.450299564158</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37631,16 +37631,16 @@
         <v>554.4630955659486</v>
       </c>
       <c r="N39" t="n">
-        <v>583.6922706327297</v>
+        <v>532.2460412499707</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>511.520156513384</v>
       </c>
       <c r="P39" t="n">
-        <v>391.0116722749049</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>69.06225485572025</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37701,19 +37701,19 @@
         <v>101.2059290193558</v>
       </c>
       <c r="K40" t="n">
-        <v>277.1256801414978</v>
+        <v>277.1256801414977</v>
       </c>
       <c r="L40" t="n">
-        <v>401.8727935817349</v>
+        <v>401.8727935817348</v>
       </c>
       <c r="M40" t="n">
-        <v>432.4942538895099</v>
+        <v>432.4942538895098</v>
       </c>
       <c r="N40" t="n">
         <v>428.4516387010908</v>
       </c>
       <c r="O40" t="n">
-        <v>381.9794231908713</v>
+        <v>381.9794231908712</v>
       </c>
       <c r="P40" t="n">
         <v>307.6533340553059</v>
@@ -37862,10 +37862,10 @@
         <v>306.1020700503681</v>
       </c>
       <c r="L42" t="n">
-        <v>458.3824541356843</v>
+        <v>406.9362247529255</v>
       </c>
       <c r="M42" t="n">
-        <v>503.0168661831898</v>
+        <v>554.4630955659486</v>
       </c>
       <c r="N42" t="n">
         <v>583.6922706327297</v>
@@ -38096,7 +38096,7 @@
         <v>132.9061636449189</v>
       </c>
       <c r="K45" t="n">
-        <v>306.1020700503681</v>
+        <v>254.6558406676093</v>
       </c>
       <c r="L45" t="n">
         <v>458.3824541356843</v>
@@ -38105,7 +38105,7 @@
         <v>554.4630955659486</v>
       </c>
       <c r="N45" t="n">
-        <v>532.2460412499707</v>
+        <v>583.6922706327297</v>
       </c>
       <c r="O45" t="n">
         <v>511.520156513384</v>
